--- a/BackTest/2020-01-12 BackTest ETC.xlsx
+++ b/BackTest/2020-01-12 BackTest ETC.xlsx
@@ -451,20 +451,14 @@
         <v>5885.583333333333</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>5905</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
       </c>
@@ -492,20 +486,14 @@
         <v>5885.583333333333</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>5890</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,20 +521,14 @@
         <v>5885.416666666667</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>5875</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -574,20 +556,14 @@
         <v>5885.25</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>5890</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -615,20 +591,14 @@
         <v>5885.5</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>5890</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -656,20 +626,14 @@
         <v>5885.75</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>5890</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -697,20 +661,14 @@
         <v>5886.25</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>5895</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -738,20 +696,14 @@
         <v>5887</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>5925</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -779,20 +731,14 @@
         <v>5887.25</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>5915</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -820,20 +766,14 @@
         <v>5887.833333333333</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>5915</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -861,20 +801,14 @@
         <v>5888.333333333333</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>5915</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -902,20 +836,14 @@
         <v>5888.583333333333</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>5900</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -943,20 +871,14 @@
         <v>5888.583333333333</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>5875</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -984,20 +906,14 @@
         <v>5889</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>5880</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1025,20 +941,14 @@
         <v>5888.416666666667</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>5870</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1066,20 +976,14 @@
         <v>5887.583333333333</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>5860</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1107,20 +1011,14 @@
         <v>5886.916666666667</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>5870</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1148,20 +1046,14 @@
         <v>5887.166666666667</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>5875</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1189,20 +1081,14 @@
         <v>5886.916666666667</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>5890</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1230,20 +1116,14 @@
         <v>5886.833333333333</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>5875</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1271,20 +1151,14 @@
         <v>5886.583333333333</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>5880</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1312,20 +1186,14 @@
         <v>5886.75</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>5910</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1353,20 +1221,14 @@
         <v>5886.75</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>5905</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1394,20 +1256,14 @@
         <v>5887</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>5930</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1435,20 +1291,14 @@
         <v>5887.083333333333</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>5915</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1476,20 +1326,14 @@
         <v>5887</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>5900</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1517,20 +1361,14 @@
         <v>5886.666666666667</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>5875</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1558,20 +1396,14 @@
         <v>5887.25</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>5920</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1599,20 +1431,14 @@
         <v>5887.666666666667</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>5920</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1640,20 +1466,14 @@
         <v>5888.083333333333</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>5910</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1681,20 +1501,14 @@
         <v>5888.583333333333</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>5935</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1722,20 +1536,14 @@
         <v>5889.416666666667</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>5950</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1763,20 +1571,14 @@
         <v>5890.25</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>5930</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1811,11 +1613,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1850,11 +1648,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1889,11 +1683,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1928,11 +1718,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1967,11 +1753,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2006,11 +1788,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2045,11 +1823,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2084,11 +1858,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2123,11 +1893,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2162,11 +1928,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2201,11 +1963,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2240,11 +1998,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2279,11 +2033,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2318,11 +2068,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2357,11 +2103,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2396,11 +2138,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2435,11 +2173,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2474,11 +2208,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2506,20 +2236,14 @@
         <v>5907.5</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>5905</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2547,20 +2271,14 @@
         <v>5908.166666666667</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>5910</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2588,20 +2306,14 @@
         <v>5908.75</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>5890</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2629,20 +2341,14 @@
         <v>5909.083333333333</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>5910</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2670,20 +2376,14 @@
         <v>5909.5</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>5920</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2711,20 +2411,14 @@
         <v>5909.75</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>5915</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2752,20 +2446,14 @@
         <v>5910</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>5910</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2793,20 +2481,14 @@
         <v>5910.083333333333</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>5890</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2834,20 +2516,14 @@
         <v>5910.166666666667</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>5910</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2875,20 +2551,14 @@
         <v>5910.333333333333</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>5895</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2916,20 +2586,14 @@
         <v>5910.416666666667</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>5895</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2957,20 +2621,14 @@
         <v>5910.166666666667</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>5865</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2998,20 +2656,14 @@
         <v>5909.75</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>5865</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3039,20 +2691,14 @@
         <v>5909.416666666667</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>5870</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3080,20 +2726,14 @@
         <v>5908.916666666667</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>5860</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3121,20 +2761,14 @@
         <v>5908.083333333333</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>5860</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3162,20 +2796,14 @@
         <v>5907.25</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>5875</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3203,20 +2831,14 @@
         <v>5907</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>5880</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3244,20 +2866,14 @@
         <v>5906</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>5865</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3285,20 +2901,14 @@
         <v>5905</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>5855</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3326,20 +2936,14 @@
         <v>5904.083333333333</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>5855</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3367,20 +2971,14 @@
         <v>5903.583333333333</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>5845</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3408,20 +3006,14 @@
         <v>5902.916666666667</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>5860</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3449,20 +3041,14 @@
         <v>5902.666666666667</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>5860</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3490,20 +3076,14 @@
         <v>5902.5</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>5860</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3531,20 +3111,14 @@
         <v>5902.25</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>5855</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3572,20 +3146,14 @@
         <v>5902.166666666667</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>5880</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3613,20 +3181,14 @@
         <v>5902.166666666667</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>5875</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3654,20 +3216,14 @@
         <v>5902.083333333333</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>5875</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3695,20 +3251,14 @@
         <v>5901.916666666667</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>5875</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3736,20 +3286,14 @@
         <v>5901.333333333333</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>5875</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3777,20 +3321,14 @@
         <v>5900.916666666667</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>5875</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3818,20 +3356,14 @@
         <v>5900.5</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>5895</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3859,20 +3391,14 @@
         <v>5900.333333333333</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>5895</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3900,20 +3426,14 @@
         <v>5900.416666666667</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>5905</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3941,20 +3461,14 @@
         <v>5900.75</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>5915</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3982,20 +3496,14 @@
         <v>5901</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>5935</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -4023,20 +3531,14 @@
         <v>5901.25</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>5940</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4064,20 +3566,14 @@
         <v>5901.583333333333</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>5950</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4105,20 +3601,14 @@
         <v>5902.166666666667</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>5965</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4153,11 +3643,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4192,11 +3678,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4231,11 +3713,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4270,11 +3748,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4309,11 +3783,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4348,11 +3818,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4387,11 +3853,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4426,11 +3888,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4465,11 +3923,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4504,11 +3958,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4543,11 +3993,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4582,11 +4028,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4621,11 +4063,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4660,11 +4098,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4699,11 +4133,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4738,11 +4168,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4777,11 +4203,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4816,11 +4238,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4855,11 +4273,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4894,11 +4308,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4933,11 +4343,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4972,11 +4378,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -5011,11 +4413,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -5050,11 +4448,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5089,11 +4483,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5128,11 +4518,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5167,11 +4553,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5206,11 +4588,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5245,11 +4623,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5284,11 +4658,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5323,11 +4693,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5362,11 +4728,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5401,11 +4763,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5440,11 +4798,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5479,11 +4833,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5518,11 +4868,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5557,11 +4903,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5596,11 +4938,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5635,11 +4973,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5674,11 +5008,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5713,11 +5043,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5752,11 +5078,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5791,11 +5113,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5830,11 +5148,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5869,11 +5183,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5908,11 +5218,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5947,11 +5253,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5986,11 +5288,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -6025,11 +5323,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -6064,11 +5358,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -6103,11 +5393,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -6142,11 +5428,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -6181,11 +5463,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -6216,15 +5494,11 @@
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6255,15 +5529,11 @@
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6298,11 +5568,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6337,11 +5603,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6376,11 +5638,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6415,11 +5673,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6454,11 +5708,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6493,11 +5743,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6532,11 +5778,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6571,11 +5813,7 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6610,11 +5848,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6649,11 +5883,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6688,11 +5918,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6727,11 +5953,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6766,11 +5988,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6805,11 +6023,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6844,11 +6058,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6883,11 +6093,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6922,11 +6128,7 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6961,11 +6163,7 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -7000,11 +6198,7 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -7039,11 +6233,7 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -7078,11 +6268,7 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -7117,11 +6303,7 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -7156,11 +6338,7 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -7195,11 +6373,7 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -7234,11 +6408,7 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -7269,16 +6439,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7306,7 +6474,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
@@ -7411,7 +6579,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
@@ -9473,13 +8641,17 @@
         <v>6257.416666666667</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>6195</v>
+      </c>
+      <c r="K236" t="n">
+        <v>6195</v>
+      </c>
       <c r="L236" t="inlineStr"/>
       <c r="M236" t="n">
         <v>1</v>
@@ -9508,14 +8680,22 @@
         <v>6255.666666666667</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>6205</v>
+      </c>
+      <c r="K237" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9543,14 +8723,22 @@
         <v>6253.833333333333</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>6190</v>
+      </c>
+      <c r="K238" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9578,14 +8766,22 @@
         <v>6252.166666666667</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>6175</v>
+      </c>
+      <c r="K239" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -9613,14 +8809,22 @@
         <v>6250.25</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>6200</v>
+      </c>
+      <c r="K240" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -9648,14 +8852,22 @@
         <v>6248.333333333333</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>6195</v>
+      </c>
+      <c r="K241" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9683,14 +8895,22 @@
         <v>6246.25</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>6185</v>
+      </c>
+      <c r="K242" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9718,14 +8938,22 @@
         <v>6244</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>6170</v>
+      </c>
+      <c r="K243" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9753,14 +8981,22 @@
         <v>6241.75</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>6165</v>
+      </c>
+      <c r="K244" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9788,14 +9024,22 @@
         <v>6239.833333333333</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>6155</v>
+      </c>
+      <c r="K245" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9823,14 +9067,22 @@
         <v>6237.833333333333</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>6160</v>
+      </c>
+      <c r="K246" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9858,14 +9110,22 @@
         <v>6235.916666666667</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>6175</v>
+      </c>
+      <c r="K247" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9893,14 +9153,22 @@
         <v>6233.666666666667</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>6185</v>
+      </c>
+      <c r="K248" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9928,14 +9196,22 @@
         <v>6231.666666666667</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>6180</v>
+      </c>
+      <c r="K249" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9963,14 +9239,22 @@
         <v>6229.5</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>6180</v>
+      </c>
+      <c r="K250" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9998,14 +9282,22 @@
         <v>6227.416666666667</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>6195</v>
+      </c>
+      <c r="K251" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -10033,14 +9325,22 @@
         <v>6225.583333333333</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>6170</v>
+      </c>
+      <c r="K252" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -10068,14 +9368,22 @@
         <v>6223.25</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>6170</v>
+      </c>
+      <c r="K253" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -10103,14 +9411,22 @@
         <v>6220.833333333333</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>6175</v>
+      </c>
+      <c r="K254" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -10138,14 +9454,22 @@
         <v>6218.333333333333</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>6170</v>
+      </c>
+      <c r="K255" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -10173,14 +9497,22 @@
         <v>6215.916666666667</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>6170</v>
+      </c>
+      <c r="K256" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -10208,14 +9540,22 @@
         <v>6213.833333333333</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>6175</v>
+      </c>
+      <c r="K257" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -10249,8 +9589,14 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -10284,8 +9630,14 @@
         <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -10319,8 +9671,14 @@
         <v>0</v>
       </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -10354,8 +9712,14 @@
         <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -10389,8 +9753,14 @@
         <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -10424,8 +9794,14 @@
         <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -10459,8 +9835,14 @@
         <v>0</v>
       </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -10494,8 +9876,14 @@
         <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -10529,8 +9917,14 @@
         <v>0</v>
       </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -10564,8 +9958,14 @@
         <v>0</v>
       </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -10599,8 +9999,14 @@
         <v>0</v>
       </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -10634,8 +10040,14 @@
         <v>0</v>
       </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -10669,8 +10081,14 @@
         <v>0</v>
       </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -10704,8 +10122,14 @@
         <v>0</v>
       </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -10739,8 +10163,14 @@
         <v>0</v>
       </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -10774,8 +10204,14 @@
         <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -10809,8 +10245,14 @@
         <v>0</v>
       </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -10844,8 +10286,14 @@
         <v>0</v>
       </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -10879,8 +10327,14 @@
         <v>0</v>
       </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -10914,8 +10368,14 @@
         <v>0</v>
       </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -10949,8 +10409,14 @@
         <v>0</v>
       </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -10984,8 +10450,14 @@
         <v>0</v>
       </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -11019,8 +10491,14 @@
         <v>0</v>
       </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -11054,8 +10532,14 @@
         <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -11089,8 +10573,14 @@
         <v>0</v>
       </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -11124,8 +10614,14 @@
         <v>0</v>
       </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -11159,8 +10655,14 @@
         <v>0</v>
       </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -11194,8 +10696,14 @@
         <v>0</v>
       </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -11229,8 +10737,14 @@
         <v>0</v>
       </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -11264,8 +10778,14 @@
         <v>0</v>
       </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -11299,8 +10819,14 @@
         <v>0</v>
       </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -11334,8 +10860,14 @@
         <v>0</v>
       </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -11369,8 +10901,14 @@
         <v>0</v>
       </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -11404,8 +10942,14 @@
         <v>0</v>
       </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -11439,8 +10983,14 @@
         <v>0</v>
       </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -11474,8 +11024,14 @@
         <v>0</v>
       </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -11509,8 +11065,14 @@
         <v>0</v>
       </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -11544,8 +11106,14 @@
         <v>0</v>
       </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -11579,8 +11147,14 @@
         <v>0</v>
       </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -11614,8 +11188,14 @@
         <v>0</v>
       </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -11649,8 +11229,14 @@
         <v>0</v>
       </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -11684,8 +11270,14 @@
         <v>0</v>
       </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -11719,8 +11311,14 @@
         <v>0</v>
       </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -11754,8 +11352,14 @@
         <v>0</v>
       </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -11789,8 +11393,14 @@
         <v>0</v>
       </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -11824,8 +11434,14 @@
         <v>0</v>
       </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -11859,8 +11475,14 @@
         <v>0</v>
       </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -11894,8 +11516,14 @@
         <v>0</v>
       </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
+      <c r="K305" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -11929,8 +11557,14 @@
         <v>0</v>
       </c>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
+      <c r="K306" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -11964,8 +11598,14 @@
         <v>0</v>
       </c>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
+      <c r="K307" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -11999,8 +11639,14 @@
         <v>0</v>
       </c>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
+      <c r="K308" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -12034,8 +11680,14 @@
         <v>0</v>
       </c>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
+      <c r="K309" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -12069,8 +11721,14 @@
         <v>0</v>
       </c>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
+      <c r="K310" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -12104,8 +11762,14 @@
         <v>0</v>
       </c>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
+      <c r="K311" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -12139,8 +11803,14 @@
         <v>0</v>
       </c>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
+      <c r="K312" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -12174,8 +11844,14 @@
         <v>0</v>
       </c>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
+      <c r="K313" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -12209,8 +11885,14 @@
         <v>0</v>
       </c>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
+      <c r="K314" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -12244,8 +11926,14 @@
         <v>0</v>
       </c>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
+      <c r="K315" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M315" t="n">
         <v>1</v>
       </c>
@@ -12279,8 +11967,14 @@
         <v>0</v>
       </c>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
+      <c r="K316" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M316" t="n">
         <v>1</v>
       </c>
@@ -12314,8 +12008,14 @@
         <v>0</v>
       </c>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
+      <c r="K317" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M317" t="n">
         <v>1</v>
       </c>
@@ -12349,8 +12049,14 @@
         <v>0</v>
       </c>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
+      <c r="K318" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M318" t="n">
         <v>1</v>
       </c>
@@ -12384,8 +12090,14 @@
         <v>0</v>
       </c>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
+      <c r="K319" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M319" t="n">
         <v>1</v>
       </c>
@@ -12419,8 +12131,14 @@
         <v>0</v>
       </c>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
+      <c r="K320" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M320" t="n">
         <v>1</v>
       </c>
@@ -12454,8 +12172,14 @@
         <v>0</v>
       </c>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
+      <c r="K321" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M321" t="n">
         <v>1</v>
       </c>
@@ -12489,8 +12213,14 @@
         <v>0</v>
       </c>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
+      <c r="K322" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M322" t="n">
         <v>1</v>
       </c>
@@ -12524,8 +12254,14 @@
         <v>0</v>
       </c>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
+      <c r="K323" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M323" t="n">
         <v>1</v>
       </c>
@@ -12559,8 +12295,14 @@
         <v>0</v>
       </c>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
+      <c r="K324" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M324" t="n">
         <v>1</v>
       </c>
@@ -12594,8 +12336,14 @@
         <v>0</v>
       </c>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
+      <c r="K325" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M325" t="n">
         <v>1</v>
       </c>
@@ -12629,8 +12377,14 @@
         <v>0</v>
       </c>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
+      <c r="K326" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M326" t="n">
         <v>1</v>
       </c>
@@ -12664,8 +12418,14 @@
         <v>0</v>
       </c>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
+      <c r="K327" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M327" t="n">
         <v>1</v>
       </c>
@@ -12699,8 +12459,14 @@
         <v>0</v>
       </c>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr"/>
+      <c r="K328" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M328" t="n">
         <v>1</v>
       </c>
@@ -12734,8 +12500,14 @@
         <v>0</v>
       </c>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr"/>
+      <c r="K329" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M329" t="n">
         <v>1</v>
       </c>
@@ -12769,8 +12541,14 @@
         <v>0</v>
       </c>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr"/>
+      <c r="K330" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M330" t="n">
         <v>1</v>
       </c>
@@ -12804,8 +12582,14 @@
         <v>0</v>
       </c>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr"/>
+      <c r="K331" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M331" t="n">
         <v>1</v>
       </c>
@@ -12839,8 +12623,14 @@
         <v>0</v>
       </c>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr"/>
+      <c r="K332" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M332" t="n">
         <v>1</v>
       </c>
@@ -12874,8 +12664,14 @@
         <v>0</v>
       </c>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr"/>
+      <c r="K333" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M333" t="n">
         <v>1</v>
       </c>
@@ -12909,8 +12705,14 @@
         <v>0</v>
       </c>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr"/>
+      <c r="K334" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M334" t="n">
         <v>1</v>
       </c>
@@ -12944,8 +12746,14 @@
         <v>0</v>
       </c>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr"/>
+      <c r="K335" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M335" t="n">
         <v>1</v>
       </c>
@@ -12979,8 +12787,14 @@
         <v>0</v>
       </c>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr"/>
+      <c r="K336" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M336" t="n">
         <v>1</v>
       </c>
@@ -13014,8 +12828,14 @@
         <v>0</v>
       </c>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr"/>
+      <c r="K337" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M337" t="n">
         <v>1</v>
       </c>
@@ -13049,8 +12869,14 @@
         <v>0</v>
       </c>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr"/>
+      <c r="K338" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M338" t="n">
         <v>1</v>
       </c>
@@ -13084,8 +12910,14 @@
         <v>0</v>
       </c>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr"/>
+      <c r="K339" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M339" t="n">
         <v>1</v>
       </c>
@@ -13119,8 +12951,14 @@
         <v>0</v>
       </c>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr"/>
+      <c r="K340" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M340" t="n">
         <v>1</v>
       </c>
@@ -13154,8 +12992,14 @@
         <v>0</v>
       </c>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr"/>
+      <c r="K341" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M341" t="n">
         <v>1</v>
       </c>
@@ -13189,8 +13033,14 @@
         <v>0</v>
       </c>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr"/>
+      <c r="K342" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M342" t="n">
         <v>1</v>
       </c>
@@ -13224,8 +13074,14 @@
         <v>0</v>
       </c>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr"/>
+      <c r="K343" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M343" t="n">
         <v>1</v>
       </c>
@@ -13259,8 +13115,14 @@
         <v>0</v>
       </c>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr"/>
+      <c r="K344" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M344" t="n">
         <v>1</v>
       </c>
@@ -13294,8 +13156,14 @@
         <v>0</v>
       </c>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr"/>
+      <c r="K345" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M345" t="n">
         <v>1</v>
       </c>
@@ -13329,8 +13197,14 @@
         <v>0</v>
       </c>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
-      <c r="L346" t="inlineStr"/>
+      <c r="K346" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M346" t="n">
         <v>1</v>
       </c>
@@ -13364,8 +13238,14 @@
         <v>0</v>
       </c>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr"/>
+      <c r="K347" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M347" t="n">
         <v>1</v>
       </c>
@@ -13399,8 +13279,14 @@
         <v>0</v>
       </c>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
-      <c r="L348" t="inlineStr"/>
+      <c r="K348" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M348" t="n">
         <v>1</v>
       </c>
@@ -13434,8 +13320,14 @@
         <v>0</v>
       </c>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr"/>
+      <c r="K349" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M349" t="n">
         <v>1</v>
       </c>
@@ -13469,8 +13361,14 @@
         <v>0</v>
       </c>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr"/>
+      <c r="K350" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M350" t="n">
         <v>1</v>
       </c>
@@ -13504,8 +13402,14 @@
         <v>0</v>
       </c>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
-      <c r="L351" t="inlineStr"/>
+      <c r="K351" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M351" t="n">
         <v>1</v>
       </c>
@@ -13539,8 +13443,14 @@
         <v>0</v>
       </c>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
-      <c r="L352" t="inlineStr"/>
+      <c r="K352" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M352" t="n">
         <v>1</v>
       </c>
@@ -13574,8 +13484,14 @@
         <v>0</v>
       </c>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
-      <c r="L353" t="inlineStr"/>
+      <c r="K353" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M353" t="n">
         <v>1</v>
       </c>
@@ -13609,8 +13525,14 @@
         <v>0</v>
       </c>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
-      <c r="L354" t="inlineStr"/>
+      <c r="K354" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M354" t="n">
         <v>1</v>
       </c>
@@ -13644,8 +13566,14 @@
         <v>0</v>
       </c>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
-      <c r="L355" t="inlineStr"/>
+      <c r="K355" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M355" t="n">
         <v>1</v>
       </c>
@@ -13679,8 +13607,14 @@
         <v>0</v>
       </c>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
-      <c r="L356" t="inlineStr"/>
+      <c r="K356" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M356" t="n">
         <v>1</v>
       </c>
@@ -13714,8 +13648,14 @@
         <v>0</v>
       </c>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
-      <c r="L357" t="inlineStr"/>
+      <c r="K357" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M357" t="n">
         <v>1</v>
       </c>
@@ -13749,8 +13689,14 @@
         <v>0</v>
       </c>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr"/>
+      <c r="K358" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M358" t="n">
         <v>1</v>
       </c>
@@ -13784,8 +13730,14 @@
         <v>0</v>
       </c>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
-      <c r="L359" t="inlineStr"/>
+      <c r="K359" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M359" t="n">
         <v>1</v>
       </c>
@@ -13819,8 +13771,14 @@
         <v>0</v>
       </c>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
-      <c r="L360" t="inlineStr"/>
+      <c r="K360" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M360" t="n">
         <v>1</v>
       </c>
@@ -13854,8 +13812,14 @@
         <v>0</v>
       </c>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
-      <c r="L361" t="inlineStr"/>
+      <c r="K361" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M361" t="n">
         <v>1</v>
       </c>
@@ -13889,8 +13853,14 @@
         <v>0</v>
       </c>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
-      <c r="L362" t="inlineStr"/>
+      <c r="K362" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M362" t="n">
         <v>1</v>
       </c>
@@ -13924,8 +13894,14 @@
         <v>0</v>
       </c>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
-      <c r="L363" t="inlineStr"/>
+      <c r="K363" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M363" t="n">
         <v>1</v>
       </c>
@@ -13959,8 +13935,14 @@
         <v>0</v>
       </c>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
-      <c r="L364" t="inlineStr"/>
+      <c r="K364" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M364" t="n">
         <v>1</v>
       </c>
@@ -13994,8 +13976,14 @@
         <v>0</v>
       </c>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
-      <c r="L365" t="inlineStr"/>
+      <c r="K365" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M365" t="n">
         <v>1</v>
       </c>
@@ -14029,8 +14017,14 @@
         <v>0</v>
       </c>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
-      <c r="L366" t="inlineStr"/>
+      <c r="K366" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M366" t="n">
         <v>1</v>
       </c>
@@ -14064,8 +14058,14 @@
         <v>0</v>
       </c>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
-      <c r="L367" t="inlineStr"/>
+      <c r="K367" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M367" t="n">
         <v>1</v>
       </c>
@@ -14099,8 +14099,14 @@
         <v>0</v>
       </c>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
-      <c r="L368" t="inlineStr"/>
+      <c r="K368" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M368" t="n">
         <v>1</v>
       </c>
@@ -14134,8 +14140,14 @@
         <v>0</v>
       </c>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
-      <c r="L369" t="inlineStr"/>
+      <c r="K369" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M369" t="n">
         <v>1</v>
       </c>
@@ -14169,8 +14181,14 @@
         <v>0</v>
       </c>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
-      <c r="L370" t="inlineStr"/>
+      <c r="K370" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M370" t="n">
         <v>1</v>
       </c>
@@ -14204,8 +14222,14 @@
         <v>0</v>
       </c>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
-      <c r="L371" t="inlineStr"/>
+      <c r="K371" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M371" t="n">
         <v>1</v>
       </c>
@@ -14239,8 +14263,14 @@
         <v>0</v>
       </c>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
-      <c r="L372" t="inlineStr"/>
+      <c r="K372" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M372" t="n">
         <v>1</v>
       </c>
@@ -14274,8 +14304,14 @@
         <v>0</v>
       </c>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
-      <c r="L373" t="inlineStr"/>
+      <c r="K373" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M373" t="n">
         <v>1</v>
       </c>
@@ -14309,8 +14345,14 @@
         <v>0</v>
       </c>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
-      <c r="L374" t="inlineStr"/>
+      <c r="K374" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M374" t="n">
         <v>1</v>
       </c>
@@ -14344,8 +14386,14 @@
         <v>0</v>
       </c>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
-      <c r="L375" t="inlineStr"/>
+      <c r="K375" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M375" t="n">
         <v>1</v>
       </c>
@@ -14379,8 +14427,14 @@
         <v>0</v>
       </c>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
-      <c r="L376" t="inlineStr"/>
+      <c r="K376" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M376" t="n">
         <v>1</v>
       </c>
@@ -14414,8 +14468,14 @@
         <v>0</v>
       </c>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
-      <c r="L377" t="inlineStr"/>
+      <c r="K377" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M377" t="n">
         <v>1</v>
       </c>
@@ -14449,8 +14509,14 @@
         <v>0</v>
       </c>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
-      <c r="L378" t="inlineStr"/>
+      <c r="K378" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M378" t="n">
         <v>1</v>
       </c>
@@ -14484,8 +14550,14 @@
         <v>0</v>
       </c>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
-      <c r="L379" t="inlineStr"/>
+      <c r="K379" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M379" t="n">
         <v>1</v>
       </c>
@@ -14519,8 +14591,14 @@
         <v>0</v>
       </c>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
-      <c r="L380" t="inlineStr"/>
+      <c r="K380" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M380" t="n">
         <v>1</v>
       </c>
@@ -14554,8 +14632,14 @@
         <v>0</v>
       </c>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
-      <c r="L381" t="inlineStr"/>
+      <c r="K381" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M381" t="n">
         <v>1</v>
       </c>
@@ -14589,8 +14673,14 @@
         <v>0</v>
       </c>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
-      <c r="L382" t="inlineStr"/>
+      <c r="K382" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M382" t="n">
         <v>1</v>
       </c>
@@ -14624,8 +14714,14 @@
         <v>0</v>
       </c>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
-      <c r="L383" t="inlineStr"/>
+      <c r="K383" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M383" t="n">
         <v>1</v>
       </c>
@@ -14659,8 +14755,14 @@
         <v>0</v>
       </c>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
-      <c r="L384" t="inlineStr"/>
+      <c r="K384" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M384" t="n">
         <v>1</v>
       </c>
@@ -14694,8 +14796,14 @@
         <v>0</v>
       </c>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
-      <c r="L385" t="inlineStr"/>
+      <c r="K385" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M385" t="n">
         <v>1</v>
       </c>
@@ -14729,8 +14837,14 @@
         <v>0</v>
       </c>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
-      <c r="L386" t="inlineStr"/>
+      <c r="K386" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M386" t="n">
         <v>1</v>
       </c>
@@ -14764,8 +14878,14 @@
         <v>0</v>
       </c>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
-      <c r="L387" t="inlineStr"/>
+      <c r="K387" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M387" t="n">
         <v>1</v>
       </c>
@@ -14799,8 +14919,14 @@
         <v>0</v>
       </c>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
-      <c r="L388" t="inlineStr"/>
+      <c r="K388" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M388" t="n">
         <v>1</v>
       </c>
@@ -14834,8 +14960,14 @@
         <v>0</v>
       </c>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
-      <c r="L389" t="inlineStr"/>
+      <c r="K389" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M389" t="n">
         <v>1</v>
       </c>
@@ -14869,8 +15001,14 @@
         <v>0</v>
       </c>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
-      <c r="L390" t="inlineStr"/>
+      <c r="K390" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M390" t="n">
         <v>1</v>
       </c>
@@ -14904,8 +15042,14 @@
         <v>0</v>
       </c>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
-      <c r="L391" t="inlineStr"/>
+      <c r="K391" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M391" t="n">
         <v>1</v>
       </c>
@@ -14939,8 +15083,14 @@
         <v>0</v>
       </c>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
-      <c r="L392" t="inlineStr"/>
+      <c r="K392" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M392" t="n">
         <v>1</v>
       </c>
@@ -14974,8 +15124,14 @@
         <v>0</v>
       </c>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
-      <c r="L393" t="inlineStr"/>
+      <c r="K393" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M393" t="n">
         <v>1</v>
       </c>
@@ -15009,8 +15165,14 @@
         <v>0</v>
       </c>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
-      <c r="L394" t="inlineStr"/>
+      <c r="K394" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M394" t="n">
         <v>1</v>
       </c>
@@ -15044,8 +15206,14 @@
         <v>0</v>
       </c>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
-      <c r="L395" t="inlineStr"/>
+      <c r="K395" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M395" t="n">
         <v>1</v>
       </c>
@@ -15079,8 +15247,14 @@
         <v>0</v>
       </c>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
-      <c r="L396" t="inlineStr"/>
+      <c r="K396" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M396" t="n">
         <v>1</v>
       </c>
@@ -15114,8 +15288,14 @@
         <v>0</v>
       </c>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
-      <c r="L397" t="inlineStr"/>
+      <c r="K397" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M397" t="n">
         <v>1</v>
       </c>
@@ -15149,8 +15329,14 @@
         <v>0</v>
       </c>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
-      <c r="L398" t="inlineStr"/>
+      <c r="K398" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M398" t="n">
         <v>1</v>
       </c>
@@ -15184,8 +15370,14 @@
         <v>0</v>
       </c>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
-      <c r="L399" t="inlineStr"/>
+      <c r="K399" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M399" t="n">
         <v>1</v>
       </c>
@@ -15219,8 +15411,14 @@
         <v>0</v>
       </c>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
-      <c r="L400" t="inlineStr"/>
+      <c r="K400" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M400" t="n">
         <v>1</v>
       </c>
@@ -15254,8 +15452,14 @@
         <v>0</v>
       </c>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
-      <c r="L401" t="inlineStr"/>
+      <c r="K401" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M401" t="n">
         <v>1</v>
       </c>
@@ -15289,8 +15493,14 @@
         <v>0</v>
       </c>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
-      <c r="L402" t="inlineStr"/>
+      <c r="K402" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M402" t="n">
         <v>1</v>
       </c>
@@ -15324,8 +15534,14 @@
         <v>0</v>
       </c>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
-      <c r="L403" t="inlineStr"/>
+      <c r="K403" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M403" t="n">
         <v>1</v>
       </c>
@@ -15359,8 +15575,14 @@
         <v>0</v>
       </c>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
-      <c r="L404" t="inlineStr"/>
+      <c r="K404" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M404" t="n">
         <v>1</v>
       </c>
@@ -15394,8 +15616,14 @@
         <v>0</v>
       </c>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
-      <c r="L405" t="inlineStr"/>
+      <c r="K405" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M405" t="n">
         <v>1</v>
       </c>
@@ -15429,8 +15657,14 @@
         <v>0</v>
       </c>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
-      <c r="L406" t="inlineStr"/>
+      <c r="K406" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M406" t="n">
         <v>1</v>
       </c>
@@ -15464,8 +15698,14 @@
         <v>0</v>
       </c>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
-      <c r="L407" t="inlineStr"/>
+      <c r="K407" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M407" t="n">
         <v>1</v>
       </c>
@@ -15499,8 +15739,14 @@
         <v>0</v>
       </c>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
-      <c r="L408" t="inlineStr"/>
+      <c r="K408" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M408" t="n">
         <v>1</v>
       </c>
@@ -15534,8 +15780,14 @@
         <v>0</v>
       </c>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
-      <c r="L409" t="inlineStr"/>
+      <c r="K409" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M409" t="n">
         <v>1</v>
       </c>
@@ -15569,8 +15821,14 @@
         <v>0</v>
       </c>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
-      <c r="L410" t="inlineStr"/>
+      <c r="K410" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M410" t="n">
         <v>1</v>
       </c>
@@ -15604,8 +15862,14 @@
         <v>0</v>
       </c>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
-      <c r="L411" t="inlineStr"/>
+      <c r="K411" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M411" t="n">
         <v>1</v>
       </c>
@@ -15639,8 +15903,14 @@
         <v>0</v>
       </c>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
-      <c r="L412" t="inlineStr"/>
+      <c r="K412" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M412" t="n">
         <v>1</v>
       </c>
@@ -15674,8 +15944,14 @@
         <v>0</v>
       </c>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
-      <c r="L413" t="inlineStr"/>
+      <c r="K413" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M413" t="n">
         <v>1</v>
       </c>
@@ -15709,8 +15985,14 @@
         <v>0</v>
       </c>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
-      <c r="L414" t="inlineStr"/>
+      <c r="K414" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M414" t="n">
         <v>1</v>
       </c>
@@ -15744,8 +16026,14 @@
         <v>0</v>
       </c>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
-      <c r="L415" t="inlineStr"/>
+      <c r="K415" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M415" t="n">
         <v>1</v>
       </c>
@@ -15779,8 +16067,14 @@
         <v>0</v>
       </c>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
-      <c r="L416" t="inlineStr"/>
+      <c r="K416" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M416" t="n">
         <v>1</v>
       </c>
@@ -15814,8 +16108,14 @@
         <v>0</v>
       </c>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
-      <c r="L417" t="inlineStr"/>
+      <c r="K417" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M417" t="n">
         <v>1</v>
       </c>
@@ -15849,8 +16149,14 @@
         <v>0</v>
       </c>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
-      <c r="L418" t="inlineStr"/>
+      <c r="K418" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M418" t="n">
         <v>1</v>
       </c>
@@ -15884,8 +16190,14 @@
         <v>0</v>
       </c>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
-      <c r="L419" t="inlineStr"/>
+      <c r="K419" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M419" t="n">
         <v>1</v>
       </c>
@@ -15919,8 +16231,14 @@
         <v>0</v>
       </c>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
-      <c r="L420" t="inlineStr"/>
+      <c r="K420" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M420" t="n">
         <v>1</v>
       </c>
@@ -15954,8 +16272,14 @@
         <v>0</v>
       </c>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
-      <c r="L421" t="inlineStr"/>
+      <c r="K421" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M421" t="n">
         <v>1</v>
       </c>
@@ -15989,8 +16313,14 @@
         <v>0</v>
       </c>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
-      <c r="L422" t="inlineStr"/>
+      <c r="K422" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M422" t="n">
         <v>1</v>
       </c>
@@ -16024,8 +16354,14 @@
         <v>0</v>
       </c>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
-      <c r="L423" t="inlineStr"/>
+      <c r="K423" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M423" t="n">
         <v>1</v>
       </c>
@@ -16059,8 +16395,14 @@
         <v>0</v>
       </c>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
-      <c r="L424" t="inlineStr"/>
+      <c r="K424" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M424" t="n">
         <v>1</v>
       </c>
@@ -16094,8 +16436,14 @@
         <v>0</v>
       </c>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
-      <c r="L425" t="inlineStr"/>
+      <c r="K425" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M425" t="n">
         <v>1</v>
       </c>
@@ -16129,8 +16477,14 @@
         <v>0</v>
       </c>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
-      <c r="L426" t="inlineStr"/>
+      <c r="K426" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M426" t="n">
         <v>1</v>
       </c>
@@ -16164,8 +16518,14 @@
         <v>0</v>
       </c>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
-      <c r="L427" t="inlineStr"/>
+      <c r="K427" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M427" t="n">
         <v>1</v>
       </c>
@@ -16199,8 +16559,14 @@
         <v>0</v>
       </c>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
-      <c r="L428" t="inlineStr"/>
+      <c r="K428" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M428" t="n">
         <v>1</v>
       </c>
@@ -16234,8 +16600,14 @@
         <v>0</v>
       </c>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
-      <c r="L429" t="inlineStr"/>
+      <c r="K429" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M429" t="n">
         <v>1</v>
       </c>
@@ -16269,8 +16641,14 @@
         <v>0</v>
       </c>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
-      <c r="L430" t="inlineStr"/>
+      <c r="K430" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M430" t="n">
         <v>1</v>
       </c>
@@ -16304,8 +16682,14 @@
         <v>0</v>
       </c>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
-      <c r="L431" t="inlineStr"/>
+      <c r="K431" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M431" t="n">
         <v>1</v>
       </c>
@@ -16339,8 +16723,14 @@
         <v>0</v>
       </c>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
-      <c r="L432" t="inlineStr"/>
+      <c r="K432" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M432" t="n">
         <v>1</v>
       </c>
@@ -16374,8 +16764,14 @@
         <v>0</v>
       </c>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
-      <c r="L433" t="inlineStr"/>
+      <c r="K433" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M433" t="n">
         <v>1</v>
       </c>
@@ -16409,8 +16805,14 @@
         <v>0</v>
       </c>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
-      <c r="L434" t="inlineStr"/>
+      <c r="K434" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M434" t="n">
         <v>1</v>
       </c>
@@ -16444,8 +16846,14 @@
         <v>0</v>
       </c>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
-      <c r="L435" t="inlineStr"/>
+      <c r="K435" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M435" t="n">
         <v>1</v>
       </c>
@@ -16479,8 +16887,14 @@
         <v>0</v>
       </c>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
-      <c r="L436" t="inlineStr"/>
+      <c r="K436" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M436" t="n">
         <v>1</v>
       </c>
@@ -16514,8 +16928,14 @@
         <v>0</v>
       </c>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
-      <c r="L437" t="inlineStr"/>
+      <c r="K437" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M437" t="n">
         <v>1</v>
       </c>
@@ -16549,8 +16969,14 @@
         <v>0</v>
       </c>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
-      <c r="L438" t="inlineStr"/>
+      <c r="K438" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M438" t="n">
         <v>1</v>
       </c>
@@ -16584,8 +17010,14 @@
         <v>0</v>
       </c>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
-      <c r="L439" t="inlineStr"/>
+      <c r="K439" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M439" t="n">
         <v>1</v>
       </c>
@@ -16619,8 +17051,14 @@
         <v>0</v>
       </c>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
-      <c r="L440" t="inlineStr"/>
+      <c r="K440" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M440" t="n">
         <v>1</v>
       </c>
@@ -16654,8 +17092,14 @@
         <v>0</v>
       </c>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
-      <c r="L441" t="inlineStr"/>
+      <c r="K441" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M441" t="n">
         <v>1</v>
       </c>
@@ -16689,8 +17133,14 @@
         <v>0</v>
       </c>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
-      <c r="L442" t="inlineStr"/>
+      <c r="K442" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M442" t="n">
         <v>1</v>
       </c>
@@ -16724,8 +17174,14 @@
         <v>0</v>
       </c>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
-      <c r="L443" t="inlineStr"/>
+      <c r="K443" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M443" t="n">
         <v>1</v>
       </c>
@@ -16759,8 +17215,14 @@
         <v>0</v>
       </c>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
-      <c r="L444" t="inlineStr"/>
+      <c r="K444" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M444" t="n">
         <v>1</v>
       </c>
@@ -16794,8 +17256,14 @@
         <v>0</v>
       </c>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
-      <c r="L445" t="inlineStr"/>
+      <c r="K445" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M445" t="n">
         <v>1</v>
       </c>
@@ -16829,8 +17297,14 @@
         <v>0</v>
       </c>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
-      <c r="L446" t="inlineStr"/>
+      <c r="K446" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M446" t="n">
         <v>1</v>
       </c>
@@ -16864,8 +17338,14 @@
         <v>0</v>
       </c>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
-      <c r="L447" t="inlineStr"/>
+      <c r="K447" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M447" t="n">
         <v>1</v>
       </c>
@@ -16899,8 +17379,14 @@
         <v>0</v>
       </c>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
-      <c r="L448" t="inlineStr"/>
+      <c r="K448" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M448" t="n">
         <v>1</v>
       </c>
@@ -16934,8 +17420,14 @@
         <v>0</v>
       </c>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
-      <c r="L449" t="inlineStr"/>
+      <c r="K449" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M449" t="n">
         <v>1</v>
       </c>
@@ -16969,8 +17461,14 @@
         <v>0</v>
       </c>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
-      <c r="L450" t="inlineStr"/>
+      <c r="K450" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M450" t="n">
         <v>1</v>
       </c>
@@ -17004,8 +17502,14 @@
         <v>0</v>
       </c>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
-      <c r="L451" t="inlineStr"/>
+      <c r="K451" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M451" t="n">
         <v>1</v>
       </c>
@@ -17039,8 +17543,14 @@
         <v>0</v>
       </c>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
-      <c r="L452" t="inlineStr"/>
+      <c r="K452" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M452" t="n">
         <v>1</v>
       </c>
@@ -17074,8 +17584,14 @@
         <v>0</v>
       </c>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
-      <c r="L453" t="inlineStr"/>
+      <c r="K453" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M453" t="n">
         <v>1</v>
       </c>
@@ -17109,8 +17625,14 @@
         <v>0</v>
       </c>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
-      <c r="L454" t="inlineStr"/>
+      <c r="K454" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M454" t="n">
         <v>1</v>
       </c>
@@ -17144,8 +17666,14 @@
         <v>0</v>
       </c>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
-      <c r="L455" t="inlineStr"/>
+      <c r="K455" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M455" t="n">
         <v>1</v>
       </c>
@@ -17179,8 +17707,14 @@
         <v>0</v>
       </c>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
-      <c r="L456" t="inlineStr"/>
+      <c r="K456" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M456" t="n">
         <v>1</v>
       </c>
@@ -17214,8 +17748,14 @@
         <v>0</v>
       </c>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
-      <c r="L457" t="inlineStr"/>
+      <c r="K457" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M457" t="n">
         <v>1</v>
       </c>
@@ -17249,8 +17789,14 @@
         <v>0</v>
       </c>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
-      <c r="L458" t="inlineStr"/>
+      <c r="K458" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M458" t="n">
         <v>1</v>
       </c>
@@ -17284,8 +17830,14 @@
         <v>0</v>
       </c>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
-      <c r="L459" t="inlineStr"/>
+      <c r="K459" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M459" t="n">
         <v>1</v>
       </c>
@@ -17319,8 +17871,14 @@
         <v>0</v>
       </c>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
-      <c r="L460" t="inlineStr"/>
+      <c r="K460" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M460" t="n">
         <v>1</v>
       </c>
@@ -17354,8 +17912,14 @@
         <v>0</v>
       </c>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
-      <c r="L461" t="inlineStr"/>
+      <c r="K461" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M461" t="n">
         <v>1</v>
       </c>
@@ -17389,8 +17953,14 @@
         <v>0</v>
       </c>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
-      <c r="L462" t="inlineStr"/>
+      <c r="K462" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M462" t="n">
         <v>1</v>
       </c>
@@ -17424,8 +17994,14 @@
         <v>0</v>
       </c>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
-      <c r="L463" t="inlineStr"/>
+      <c r="K463" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M463" t="n">
         <v>1</v>
       </c>
@@ -17459,8 +18035,14 @@
         <v>0</v>
       </c>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
-      <c r="L464" t="inlineStr"/>
+      <c r="K464" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M464" t="n">
         <v>1</v>
       </c>
@@ -17494,8 +18076,14 @@
         <v>0</v>
       </c>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
-      <c r="L465" t="inlineStr"/>
+      <c r="K465" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M465" t="n">
         <v>1</v>
       </c>
@@ -17529,8 +18117,14 @@
         <v>0</v>
       </c>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
-      <c r="L466" t="inlineStr"/>
+      <c r="K466" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M466" t="n">
         <v>1</v>
       </c>
@@ -17564,8 +18158,14 @@
         <v>0</v>
       </c>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
-      <c r="L467" t="inlineStr"/>
+      <c r="K467" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M467" t="n">
         <v>1</v>
       </c>
@@ -17599,8 +18199,14 @@
         <v>0</v>
       </c>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
-      <c r="L468" t="inlineStr"/>
+      <c r="K468" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M468" t="n">
         <v>1</v>
       </c>
@@ -17634,8 +18240,14 @@
         <v>0</v>
       </c>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
-      <c r="L469" t="inlineStr"/>
+      <c r="K469" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M469" t="n">
         <v>1</v>
       </c>
@@ -17669,8 +18281,14 @@
         <v>0</v>
       </c>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
-      <c r="L470" t="inlineStr"/>
+      <c r="K470" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M470" t="n">
         <v>1</v>
       </c>
@@ -17704,8 +18322,14 @@
         <v>0</v>
       </c>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
-      <c r="L471" t="inlineStr"/>
+      <c r="K471" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M471" t="n">
         <v>1</v>
       </c>
@@ -17739,8 +18363,14 @@
         <v>0</v>
       </c>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
-      <c r="L472" t="inlineStr"/>
+      <c r="K472" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M472" t="n">
         <v>1</v>
       </c>
@@ -17774,8 +18404,14 @@
         <v>0</v>
       </c>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
-      <c r="L473" t="inlineStr"/>
+      <c r="K473" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M473" t="n">
         <v>1</v>
       </c>
@@ -17809,8 +18445,14 @@
         <v>0</v>
       </c>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
-      <c r="L474" t="inlineStr"/>
+      <c r="K474" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M474" t="n">
         <v>1</v>
       </c>
@@ -17844,8 +18486,14 @@
         <v>0</v>
       </c>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
-      <c r="L475" t="inlineStr"/>
+      <c r="K475" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M475" t="n">
         <v>1</v>
       </c>
@@ -17879,8 +18527,14 @@
         <v>0</v>
       </c>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
-      <c r="L476" t="inlineStr"/>
+      <c r="K476" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M476" t="n">
         <v>1</v>
       </c>
@@ -17914,8 +18568,14 @@
         <v>0</v>
       </c>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
-      <c r="L477" t="inlineStr"/>
+      <c r="K477" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M477" t="n">
         <v>1</v>
       </c>
@@ -17949,8 +18609,14 @@
         <v>0</v>
       </c>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
-      <c r="L478" t="inlineStr"/>
+      <c r="K478" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M478" t="n">
         <v>1</v>
       </c>
@@ -17984,8 +18650,14 @@
         <v>0</v>
       </c>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
-      <c r="L479" t="inlineStr"/>
+      <c r="K479" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M479" t="n">
         <v>1</v>
       </c>
@@ -18019,8 +18691,14 @@
         <v>0</v>
       </c>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
-      <c r="L480" t="inlineStr"/>
+      <c r="K480" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M480" t="n">
         <v>1</v>
       </c>
@@ -18054,8 +18732,14 @@
         <v>0</v>
       </c>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
-      <c r="L481" t="inlineStr"/>
+      <c r="K481" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M481" t="n">
         <v>1</v>
       </c>
@@ -18089,8 +18773,14 @@
         <v>0</v>
       </c>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
-      <c r="L482" t="inlineStr"/>
+      <c r="K482" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M482" t="n">
         <v>1</v>
       </c>
@@ -18124,8 +18814,14 @@
         <v>0</v>
       </c>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
-      <c r="L483" t="inlineStr"/>
+      <c r="K483" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M483" t="n">
         <v>1</v>
       </c>
@@ -18159,8 +18855,14 @@
         <v>0</v>
       </c>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
-      <c r="L484" t="inlineStr"/>
+      <c r="K484" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M484" t="n">
         <v>1</v>
       </c>
@@ -18194,8 +18896,14 @@
         <v>0</v>
       </c>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
-      <c r="L485" t="inlineStr"/>
+      <c r="K485" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M485" t="n">
         <v>1</v>
       </c>
@@ -18229,8 +18937,14 @@
         <v>0</v>
       </c>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
-      <c r="L486" t="inlineStr"/>
+      <c r="K486" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M486" t="n">
         <v>1</v>
       </c>
@@ -18264,8 +18978,14 @@
         <v>0</v>
       </c>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
-      <c r="L487" t="inlineStr"/>
+      <c r="K487" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M487" t="n">
         <v>1</v>
       </c>
@@ -18299,8 +19019,14 @@
         <v>0</v>
       </c>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
-      <c r="L488" t="inlineStr"/>
+      <c r="K488" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M488" t="n">
         <v>1</v>
       </c>
@@ -18334,8 +19060,14 @@
         <v>0</v>
       </c>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
-      <c r="L489" t="inlineStr"/>
+      <c r="K489" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M489" t="n">
         <v>1</v>
       </c>
@@ -18369,8 +19101,14 @@
         <v>0</v>
       </c>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
-      <c r="L490" t="inlineStr"/>
+      <c r="K490" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M490" t="n">
         <v>1</v>
       </c>
@@ -18404,8 +19142,14 @@
         <v>0</v>
       </c>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
-      <c r="L491" t="inlineStr"/>
+      <c r="K491" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M491" t="n">
         <v>1</v>
       </c>
@@ -18439,8 +19183,14 @@
         <v>0</v>
       </c>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
-      <c r="L492" t="inlineStr"/>
+      <c r="K492" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M492" t="n">
         <v>1</v>
       </c>
@@ -18474,8 +19224,14 @@
         <v>0</v>
       </c>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
-      <c r="L493" t="inlineStr"/>
+      <c r="K493" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M493" t="n">
         <v>1</v>
       </c>
@@ -18509,8 +19265,14 @@
         <v>0</v>
       </c>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
-      <c r="L494" t="inlineStr"/>
+      <c r="K494" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M494" t="n">
         <v>1</v>
       </c>
@@ -18544,8 +19306,14 @@
         <v>0</v>
       </c>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
-      <c r="L495" t="inlineStr"/>
+      <c r="K495" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M495" t="n">
         <v>1</v>
       </c>
@@ -18579,8 +19347,14 @@
         <v>0</v>
       </c>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
-      <c r="L496" t="inlineStr"/>
+      <c r="K496" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M496" t="n">
         <v>1</v>
       </c>
@@ -18614,8 +19388,14 @@
         <v>0</v>
       </c>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
-      <c r="L497" t="inlineStr"/>
+      <c r="K497" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M497" t="n">
         <v>1</v>
       </c>
@@ -18649,8 +19429,14 @@
         <v>0</v>
       </c>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
-      <c r="L498" t="inlineStr"/>
+      <c r="K498" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M498" t="n">
         <v>1</v>
       </c>
@@ -18684,8 +19470,14 @@
         <v>0</v>
       </c>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
-      <c r="L499" t="inlineStr"/>
+      <c r="K499" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M499" t="n">
         <v>1</v>
       </c>
@@ -18719,8 +19511,14 @@
         <v>0</v>
       </c>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
-      <c r="L500" t="inlineStr"/>
+      <c r="K500" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M500" t="n">
         <v>1</v>
       </c>
@@ -18754,8 +19552,14 @@
         <v>0</v>
       </c>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
-      <c r="L501" t="inlineStr"/>
+      <c r="K501" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M501" t="n">
         <v>1</v>
       </c>
@@ -18789,8 +19593,14 @@
         <v>0</v>
       </c>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
-      <c r="L502" t="inlineStr"/>
+      <c r="K502" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M502" t="n">
         <v>1</v>
       </c>
@@ -18824,8 +19634,14 @@
         <v>0</v>
       </c>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
-      <c r="L503" t="inlineStr"/>
+      <c r="K503" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M503" t="n">
         <v>1</v>
       </c>
@@ -18859,8 +19675,14 @@
         <v>0</v>
       </c>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
-      <c r="L504" t="inlineStr"/>
+      <c r="K504" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M504" t="n">
         <v>1</v>
       </c>
@@ -18894,8 +19716,14 @@
         <v>0</v>
       </c>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
-      <c r="L505" t="inlineStr"/>
+      <c r="K505" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M505" t="n">
         <v>1</v>
       </c>
@@ -18929,8 +19757,14 @@
         <v>0</v>
       </c>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
-      <c r="L506" t="inlineStr"/>
+      <c r="K506" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M506" t="n">
         <v>1</v>
       </c>
@@ -18964,8 +19798,14 @@
         <v>0</v>
       </c>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
-      <c r="L507" t="inlineStr"/>
+      <c r="K507" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M507" t="n">
         <v>1</v>
       </c>
@@ -18999,8 +19839,14 @@
         <v>0</v>
       </c>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
-      <c r="L508" t="inlineStr"/>
+      <c r="K508" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M508" t="n">
         <v>1</v>
       </c>
@@ -19034,8 +19880,14 @@
         <v>0</v>
       </c>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
-      <c r="L509" t="inlineStr"/>
+      <c r="K509" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M509" t="n">
         <v>1</v>
       </c>
@@ -19069,8 +19921,14 @@
         <v>0</v>
       </c>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
-      <c r="L510" t="inlineStr"/>
+      <c r="K510" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M510" t="n">
         <v>1</v>
       </c>
@@ -19104,8 +19962,14 @@
         <v>0</v>
       </c>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
-      <c r="L511" t="inlineStr"/>
+      <c r="K511" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M511" t="n">
         <v>1</v>
       </c>
@@ -19139,8 +20003,14 @@
         <v>0</v>
       </c>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
-      <c r="L512" t="inlineStr"/>
+      <c r="K512" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M512" t="n">
         <v>1</v>
       </c>
@@ -19174,8 +20044,14 @@
         <v>0</v>
       </c>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
-      <c r="L513" t="inlineStr"/>
+      <c r="K513" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M513" t="n">
         <v>1</v>
       </c>
@@ -19209,8 +20085,14 @@
         <v>0</v>
       </c>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
-      <c r="L514" t="inlineStr"/>
+      <c r="K514" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M514" t="n">
         <v>1</v>
       </c>
@@ -19244,8 +20126,14 @@
         <v>0</v>
       </c>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
-      <c r="L515" t="inlineStr"/>
+      <c r="K515" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M515" t="n">
         <v>1</v>
       </c>
@@ -19279,8 +20167,14 @@
         <v>0</v>
       </c>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
-      <c r="L516" t="inlineStr"/>
+      <c r="K516" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M516" t="n">
         <v>1</v>
       </c>
@@ -19314,8 +20208,14 @@
         <v>0</v>
       </c>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
-      <c r="L517" t="inlineStr"/>
+      <c r="K517" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M517" t="n">
         <v>1</v>
       </c>
@@ -19349,8 +20249,14 @@
         <v>0</v>
       </c>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
-      <c r="L518" t="inlineStr"/>
+      <c r="K518" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M518" t="n">
         <v>1</v>
       </c>
@@ -19384,8 +20290,14 @@
         <v>0</v>
       </c>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
-      <c r="L519" t="inlineStr"/>
+      <c r="K519" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M519" t="n">
         <v>1</v>
       </c>
@@ -19419,8 +20331,14 @@
         <v>0</v>
       </c>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
-      <c r="L520" t="inlineStr"/>
+      <c r="K520" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M520" t="n">
         <v>1</v>
       </c>
@@ -19454,8 +20372,14 @@
         <v>0</v>
       </c>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
-      <c r="L521" t="inlineStr"/>
+      <c r="K521" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M521" t="n">
         <v>1</v>
       </c>
@@ -19489,8 +20413,14 @@
         <v>0</v>
       </c>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
-      <c r="L522" t="inlineStr"/>
+      <c r="K522" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M522" t="n">
         <v>1</v>
       </c>
@@ -19524,8 +20454,14 @@
         <v>0</v>
       </c>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
-      <c r="L523" t="inlineStr"/>
+      <c r="K523" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M523" t="n">
         <v>1</v>
       </c>
@@ -19559,8 +20495,14 @@
         <v>0</v>
       </c>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
-      <c r="L524" t="inlineStr"/>
+      <c r="K524" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M524" t="n">
         <v>1</v>
       </c>
@@ -19594,8 +20536,14 @@
         <v>0</v>
       </c>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
-      <c r="L525" t="inlineStr"/>
+      <c r="K525" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M525" t="n">
         <v>1</v>
       </c>
@@ -19629,8 +20577,14 @@
         <v>0</v>
       </c>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
-      <c r="L526" t="inlineStr"/>
+      <c r="K526" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M526" t="n">
         <v>1</v>
       </c>
@@ -19664,8 +20618,14 @@
         <v>0</v>
       </c>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
-      <c r="L527" t="inlineStr"/>
+      <c r="K527" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M527" t="n">
         <v>1</v>
       </c>
@@ -19699,8 +20659,14 @@
         <v>0</v>
       </c>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
-      <c r="L528" t="inlineStr"/>
+      <c r="K528" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M528" t="n">
         <v>1</v>
       </c>
@@ -19734,8 +20700,14 @@
         <v>0</v>
       </c>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
-      <c r="L529" t="inlineStr"/>
+      <c r="K529" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M529" t="n">
         <v>1</v>
       </c>
@@ -19769,8 +20741,14 @@
         <v>0</v>
       </c>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
-      <c r="L530" t="inlineStr"/>
+      <c r="K530" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M530" t="n">
         <v>1</v>
       </c>
@@ -19804,8 +20782,14 @@
         <v>0</v>
       </c>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
-      <c r="L531" t="inlineStr"/>
+      <c r="K531" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M531" t="n">
         <v>1</v>
       </c>
@@ -19839,8 +20823,14 @@
         <v>0</v>
       </c>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
-      <c r="L532" t="inlineStr"/>
+      <c r="K532" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M532" t="n">
         <v>1</v>
       </c>
@@ -19874,8 +20864,14 @@
         <v>0</v>
       </c>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
-      <c r="L533" t="inlineStr"/>
+      <c r="K533" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M533" t="n">
         <v>1</v>
       </c>
@@ -19909,8 +20905,14 @@
         <v>0</v>
       </c>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
-      <c r="L534" t="inlineStr"/>
+      <c r="K534" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M534" t="n">
         <v>1</v>
       </c>
@@ -19944,8 +20946,14 @@
         <v>0</v>
       </c>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
-      <c r="L535" t="inlineStr"/>
+      <c r="K535" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M535" t="n">
         <v>1</v>
       </c>
@@ -19979,8 +20987,14 @@
         <v>0</v>
       </c>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
-      <c r="L536" t="inlineStr"/>
+      <c r="K536" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M536" t="n">
         <v>1</v>
       </c>
@@ -20014,8 +21028,14 @@
         <v>0</v>
       </c>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
-      <c r="L537" t="inlineStr"/>
+      <c r="K537" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M537" t="n">
         <v>1</v>
       </c>
@@ -20049,8 +21069,14 @@
         <v>0</v>
       </c>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
-      <c r="L538" t="inlineStr"/>
+      <c r="K538" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M538" t="n">
         <v>1</v>
       </c>
@@ -20084,8 +21110,14 @@
         <v>0</v>
       </c>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
-      <c r="L539" t="inlineStr"/>
+      <c r="K539" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M539" t="n">
         <v>1</v>
       </c>
@@ -20119,8 +21151,14 @@
         <v>0</v>
       </c>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
-      <c r="L540" t="inlineStr"/>
+      <c r="K540" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M540" t="n">
         <v>1</v>
       </c>
@@ -20154,8 +21192,14 @@
         <v>0</v>
       </c>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
-      <c r="L541" t="inlineStr"/>
+      <c r="K541" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M541" t="n">
         <v>1</v>
       </c>
@@ -20189,8 +21233,14 @@
         <v>0</v>
       </c>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
-      <c r="L542" t="inlineStr"/>
+      <c r="K542" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M542" t="n">
         <v>1</v>
       </c>
@@ -20224,8 +21274,14 @@
         <v>0</v>
       </c>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
-      <c r="L543" t="inlineStr"/>
+      <c r="K543" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M543" t="n">
         <v>1</v>
       </c>
@@ -20259,8 +21315,14 @@
         <v>0</v>
       </c>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
-      <c r="L544" t="inlineStr"/>
+      <c r="K544" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M544" t="n">
         <v>1</v>
       </c>
@@ -20294,8 +21356,14 @@
         <v>0</v>
       </c>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
-      <c r="L545" t="inlineStr"/>
+      <c r="K545" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M545" t="n">
         <v>1</v>
       </c>
@@ -20329,8 +21397,14 @@
         <v>0</v>
       </c>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
-      <c r="L546" t="inlineStr"/>
+      <c r="K546" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M546" t="n">
         <v>1</v>
       </c>
@@ -20364,8 +21438,14 @@
         <v>0</v>
       </c>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
-      <c r="L547" t="inlineStr"/>
+      <c r="K547" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M547" t="n">
         <v>1</v>
       </c>
@@ -20399,8 +21479,14 @@
         <v>0</v>
       </c>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
-      <c r="L548" t="inlineStr"/>
+      <c r="K548" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M548" t="n">
         <v>1</v>
       </c>
@@ -20434,8 +21520,14 @@
         <v>0</v>
       </c>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
-      <c r="L549" t="inlineStr"/>
+      <c r="K549" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M549" t="n">
         <v>1</v>
       </c>
@@ -20469,8 +21561,14 @@
         <v>0</v>
       </c>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
-      <c r="L550" t="inlineStr"/>
+      <c r="K550" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M550" t="n">
         <v>1</v>
       </c>
@@ -20504,8 +21602,14 @@
         <v>0</v>
       </c>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
-      <c r="L551" t="inlineStr"/>
+      <c r="K551" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M551" t="n">
         <v>1</v>
       </c>
@@ -20539,8 +21643,14 @@
         <v>0</v>
       </c>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
-      <c r="L552" t="inlineStr"/>
+      <c r="K552" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M552" t="n">
         <v>1</v>
       </c>
@@ -20574,8 +21684,14 @@
         <v>0</v>
       </c>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
-      <c r="L553" t="inlineStr"/>
+      <c r="K553" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M553" t="n">
         <v>1</v>
       </c>
@@ -20609,8 +21725,14 @@
         <v>0</v>
       </c>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
-      <c r="L554" t="inlineStr"/>
+      <c r="K554" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M554" t="n">
         <v>1</v>
       </c>
@@ -20644,8 +21766,14 @@
         <v>0</v>
       </c>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
-      <c r="L555" t="inlineStr"/>
+      <c r="K555" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M555" t="n">
         <v>1</v>
       </c>
@@ -20679,8 +21807,14 @@
         <v>0</v>
       </c>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
-      <c r="L556" t="inlineStr"/>
+      <c r="K556" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M556" t="n">
         <v>1</v>
       </c>
@@ -20714,8 +21848,14 @@
         <v>0</v>
       </c>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
-      <c r="L557" t="inlineStr"/>
+      <c r="K557" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M557" t="n">
         <v>1</v>
       </c>
@@ -20749,8 +21889,14 @@
         <v>0</v>
       </c>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
-      <c r="L558" t="inlineStr"/>
+      <c r="K558" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M558" t="n">
         <v>1</v>
       </c>
@@ -20784,8 +21930,14 @@
         <v>0</v>
       </c>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
-      <c r="L559" t="inlineStr"/>
+      <c r="K559" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M559" t="n">
         <v>1</v>
       </c>
@@ -20819,8 +21971,14 @@
         <v>0</v>
       </c>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
-      <c r="L560" t="inlineStr"/>
+      <c r="K560" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M560" t="n">
         <v>1</v>
       </c>
@@ -20854,8 +22012,14 @@
         <v>0</v>
       </c>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
-      <c r="L561" t="inlineStr"/>
+      <c r="K561" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M561" t="n">
         <v>1</v>
       </c>
@@ -20889,8 +22053,14 @@
         <v>0</v>
       </c>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
-      <c r="L562" t="inlineStr"/>
+      <c r="K562" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M562" t="n">
         <v>1</v>
       </c>
@@ -20924,8 +22094,14 @@
         <v>0</v>
       </c>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
-      <c r="L563" t="inlineStr"/>
+      <c r="K563" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M563" t="n">
         <v>1</v>
       </c>
@@ -20959,8 +22135,14 @@
         <v>0</v>
       </c>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
-      <c r="L564" t="inlineStr"/>
+      <c r="K564" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M564" t="n">
         <v>1</v>
       </c>
@@ -20994,8 +22176,14 @@
         <v>0</v>
       </c>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
-      <c r="L565" t="inlineStr"/>
+      <c r="K565" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M565" t="n">
         <v>1</v>
       </c>
@@ -21029,8 +22217,14 @@
         <v>0</v>
       </c>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
-      <c r="L566" t="inlineStr"/>
+      <c r="K566" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M566" t="n">
         <v>1</v>
       </c>
@@ -21064,8 +22258,14 @@
         <v>0</v>
       </c>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
-      <c r="L567" t="inlineStr"/>
+      <c r="K567" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M567" t="n">
         <v>1</v>
       </c>
@@ -21099,8 +22299,14 @@
         <v>0</v>
       </c>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
-      <c r="L568" t="inlineStr"/>
+      <c r="K568" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M568" t="n">
         <v>1</v>
       </c>
@@ -21134,8 +22340,14 @@
         <v>0</v>
       </c>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
-      <c r="L569" t="inlineStr"/>
+      <c r="K569" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M569" t="n">
         <v>1</v>
       </c>
@@ -21169,8 +22381,14 @@
         <v>0</v>
       </c>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
-      <c r="L570" t="inlineStr"/>
+      <c r="K570" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M570" t="n">
         <v>1</v>
       </c>
@@ -21204,8 +22422,14 @@
         <v>0</v>
       </c>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
-      <c r="L571" t="inlineStr"/>
+      <c r="K571" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M571" t="n">
         <v>1</v>
       </c>
@@ -21239,8 +22463,14 @@
         <v>0</v>
       </c>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
-      <c r="L572" t="inlineStr"/>
+      <c r="K572" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M572" t="n">
         <v>1</v>
       </c>
@@ -21274,8 +22504,14 @@
         <v>0</v>
       </c>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
-      <c r="L573" t="inlineStr"/>
+      <c r="K573" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M573" t="n">
         <v>1</v>
       </c>
@@ -21309,8 +22545,14 @@
         <v>0</v>
       </c>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
-      <c r="L574" t="inlineStr"/>
+      <c r="K574" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M574" t="n">
         <v>1</v>
       </c>
@@ -21344,8 +22586,14 @@
         <v>0</v>
       </c>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
-      <c r="L575" t="inlineStr"/>
+      <c r="K575" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M575" t="n">
         <v>1</v>
       </c>
@@ -21379,8 +22627,14 @@
         <v>0</v>
       </c>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
-      <c r="L576" t="inlineStr"/>
+      <c r="K576" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M576" t="n">
         <v>1</v>
       </c>
@@ -21414,8 +22668,14 @@
         <v>0</v>
       </c>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
-      <c r="L577" t="inlineStr"/>
+      <c r="K577" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M577" t="n">
         <v>1</v>
       </c>
@@ -21449,8 +22709,14 @@
         <v>0</v>
       </c>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
-      <c r="L578" t="inlineStr"/>
+      <c r="K578" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M578" t="n">
         <v>1</v>
       </c>
@@ -21484,8 +22750,14 @@
         <v>0</v>
       </c>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
-      <c r="L579" t="inlineStr"/>
+      <c r="K579" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M579" t="n">
         <v>1</v>
       </c>
@@ -21519,8 +22791,14 @@
         <v>0</v>
       </c>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
-      <c r="L580" t="inlineStr"/>
+      <c r="K580" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M580" t="n">
         <v>1</v>
       </c>
@@ -21554,8 +22832,14 @@
         <v>0</v>
       </c>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
-      <c r="L581" t="inlineStr"/>
+      <c r="K581" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M581" t="n">
         <v>1</v>
       </c>
@@ -21589,8 +22873,14 @@
         <v>0</v>
       </c>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
-      <c r="L582" t="inlineStr"/>
+      <c r="K582" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M582" t="n">
         <v>1</v>
       </c>
@@ -21624,8 +22914,14 @@
         <v>0</v>
       </c>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
-      <c r="L583" t="inlineStr"/>
+      <c r="K583" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M583" t="n">
         <v>1</v>
       </c>
@@ -21659,8 +22955,14 @@
         <v>0</v>
       </c>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
-      <c r="L584" t="inlineStr"/>
+      <c r="K584" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M584" t="n">
         <v>1</v>
       </c>
@@ -21694,8 +22996,14 @@
         <v>0</v>
       </c>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
-      <c r="L585" t="inlineStr"/>
+      <c r="K585" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M585" t="n">
         <v>1</v>
       </c>
@@ -21729,8 +23037,14 @@
         <v>0</v>
       </c>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
-      <c r="L586" t="inlineStr"/>
+      <c r="K586" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M586" t="n">
         <v>1</v>
       </c>
@@ -21764,8 +23078,14 @@
         <v>0</v>
       </c>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
-      <c r="L587" t="inlineStr"/>
+      <c r="K587" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M587" t="n">
         <v>1</v>
       </c>
@@ -21799,8 +23119,14 @@
         <v>0</v>
       </c>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
-      <c r="L588" t="inlineStr"/>
+      <c r="K588" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M588" t="n">
         <v>1</v>
       </c>
@@ -21834,8 +23160,14 @@
         <v>0</v>
       </c>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
-      <c r="L589" t="inlineStr"/>
+      <c r="K589" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M589" t="n">
         <v>1</v>
       </c>
@@ -21869,8 +23201,14 @@
         <v>0</v>
       </c>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
-      <c r="L590" t="inlineStr"/>
+      <c r="K590" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M590" t="n">
         <v>1</v>
       </c>
@@ -21904,8 +23242,14 @@
         <v>0</v>
       </c>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
-      <c r="L591" t="inlineStr"/>
+      <c r="K591" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M591" t="n">
         <v>1</v>
       </c>
@@ -21939,8 +23283,14 @@
         <v>0</v>
       </c>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
-      <c r="L592" t="inlineStr"/>
+      <c r="K592" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M592" t="n">
         <v>1</v>
       </c>
@@ -21974,8 +23324,14 @@
         <v>0</v>
       </c>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
-      <c r="L593" t="inlineStr"/>
+      <c r="K593" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M593" t="n">
         <v>1</v>
       </c>
@@ -22009,8 +23365,14 @@
         <v>0</v>
       </c>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
-      <c r="L594" t="inlineStr"/>
+      <c r="K594" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M594" t="n">
         <v>1</v>
       </c>
@@ -22044,8 +23406,14 @@
         <v>0</v>
       </c>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
-      <c r="L595" t="inlineStr"/>
+      <c r="K595" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M595" t="n">
         <v>1</v>
       </c>
@@ -22079,8 +23447,14 @@
         <v>0</v>
       </c>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
-      <c r="L596" t="inlineStr"/>
+      <c r="K596" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M596" t="n">
         <v>1</v>
       </c>
@@ -22114,8 +23488,14 @@
         <v>0</v>
       </c>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
-      <c r="L597" t="inlineStr"/>
+      <c r="K597" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M597" t="n">
         <v>1</v>
       </c>
@@ -22149,8 +23529,14 @@
         <v>0</v>
       </c>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
-      <c r="L598" t="inlineStr"/>
+      <c r="K598" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M598" t="n">
         <v>1</v>
       </c>
@@ -22184,8 +23570,14 @@
         <v>0</v>
       </c>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
-      <c r="L599" t="inlineStr"/>
+      <c r="K599" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M599" t="n">
         <v>1</v>
       </c>
@@ -22219,8 +23611,14 @@
         <v>0</v>
       </c>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
-      <c r="L600" t="inlineStr"/>
+      <c r="K600" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M600" t="n">
         <v>1</v>
       </c>
@@ -22254,8 +23652,14 @@
         <v>0</v>
       </c>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
-      <c r="L601" t="inlineStr"/>
+      <c r="K601" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M601" t="n">
         <v>1</v>
       </c>
@@ -22289,8 +23693,14 @@
         <v>0</v>
       </c>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
-      <c r="L602" t="inlineStr"/>
+      <c r="K602" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M602" t="n">
         <v>1</v>
       </c>
@@ -22324,8 +23734,14 @@
         <v>0</v>
       </c>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
-      <c r="L603" t="inlineStr"/>
+      <c r="K603" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M603" t="n">
         <v>1</v>
       </c>
@@ -22359,8 +23775,14 @@
         <v>0</v>
       </c>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
-      <c r="L604" t="inlineStr"/>
+      <c r="K604" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M604" t="n">
         <v>1</v>
       </c>
@@ -22394,8 +23816,14 @@
         <v>0</v>
       </c>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
-      <c r="L605" t="inlineStr"/>
+      <c r="K605" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M605" t="n">
         <v>1</v>
       </c>
@@ -22429,8 +23857,14 @@
         <v>0</v>
       </c>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
-      <c r="L606" t="inlineStr"/>
+      <c r="K606" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M606" t="n">
         <v>1</v>
       </c>
@@ -22464,8 +23898,14 @@
         <v>0</v>
       </c>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
-      <c r="L607" t="inlineStr"/>
+      <c r="K607" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M607" t="n">
         <v>1</v>
       </c>
@@ -22499,8 +23939,14 @@
         <v>0</v>
       </c>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
-      <c r="L608" t="inlineStr"/>
+      <c r="K608" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M608" t="n">
         <v>1</v>
       </c>
@@ -22534,8 +23980,14 @@
         <v>0</v>
       </c>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
-      <c r="L609" t="inlineStr"/>
+      <c r="K609" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M609" t="n">
         <v>1</v>
       </c>
@@ -22569,8 +24021,14 @@
         <v>0</v>
       </c>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
-      <c r="L610" t="inlineStr"/>
+      <c r="K610" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M610" t="n">
         <v>1</v>
       </c>
@@ -22604,8 +24062,14 @@
         <v>0</v>
       </c>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
-      <c r="L611" t="inlineStr"/>
+      <c r="K611" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M611" t="n">
         <v>1</v>
       </c>
@@ -22639,8 +24103,14 @@
         <v>0</v>
       </c>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
-      <c r="L612" t="inlineStr"/>
+      <c r="K612" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M612" t="n">
         <v>1</v>
       </c>
@@ -22674,8 +24144,14 @@
         <v>0</v>
       </c>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
-      <c r="L613" t="inlineStr"/>
+      <c r="K613" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M613" t="n">
         <v>1</v>
       </c>
@@ -22709,8 +24185,14 @@
         <v>0</v>
       </c>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
-      <c r="L614" t="inlineStr"/>
+      <c r="K614" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M614" t="n">
         <v>1</v>
       </c>
@@ -22744,8 +24226,14 @@
         <v>0</v>
       </c>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
-      <c r="L615" t="inlineStr"/>
+      <c r="K615" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M615" t="n">
         <v>1</v>
       </c>
@@ -22779,8 +24267,14 @@
         <v>0</v>
       </c>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
-      <c r="L616" t="inlineStr"/>
+      <c r="K616" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M616" t="n">
         <v>1</v>
       </c>
@@ -22814,8 +24308,14 @@
         <v>0</v>
       </c>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
-      <c r="L617" t="inlineStr"/>
+      <c r="K617" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M617" t="n">
         <v>1</v>
       </c>
@@ -22849,8 +24349,14 @@
         <v>0</v>
       </c>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
-      <c r="L618" t="inlineStr"/>
+      <c r="K618" t="n">
+        <v>6195</v>
+      </c>
+      <c r="L618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M618" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-12 BackTest ETC.xlsx
+++ b/BackTest/2020-01-12 BackTest ETC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -517,14 +517,10 @@
         <v>-3241.023176914051</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5890</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5890</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
@@ -554,19 +550,11 @@
         <v>-3672.840776914051</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>5900</v>
-      </c>
-      <c r="J5" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -598,14 +586,8 @@
         <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -634,19 +616,11 @@
         <v>-3703.448676914051</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>5875</v>
-      </c>
-      <c r="J7" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -675,19 +649,11 @@
         <v>-3567.303098682759</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>5870</v>
-      </c>
-      <c r="J8" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -719,14 +685,8 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -755,19 +715,11 @@
         <v>-3567.303098682759</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>5880</v>
-      </c>
-      <c r="J10" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -799,14 +751,8 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -838,14 +784,8 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -877,14 +817,8 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -916,14 +850,8 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -955,14 +883,8 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -994,14 +916,8 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1033,14 +949,8 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1072,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1111,14 +1015,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1150,14 +1048,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1186,19 +1078,11 @@
         <v>-1940.751198682759</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>5885</v>
-      </c>
-      <c r="J21" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1230,14 +1114,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1269,14 +1147,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1305,19 +1177,11 @@
         <v>-1938.944098682759</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>5900</v>
-      </c>
-      <c r="J24" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1346,19 +1210,11 @@
         <v>-1840.751198682759</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>5905</v>
-      </c>
-      <c r="J25" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1387,19 +1243,11 @@
         <v>-1890.751198682759</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>5910</v>
-      </c>
-      <c r="J26" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1428,19 +1276,11 @@
         <v>-1195.009998682759</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>5905</v>
-      </c>
-      <c r="J27" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1469,19 +1309,11 @@
         <v>-1769.988998682759</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>5915</v>
-      </c>
-      <c r="J28" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1513,14 +1345,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1552,14 +1378,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1591,14 +1411,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1630,14 +1444,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1666,19 +1474,11 @@
         <v>-1862.934898682759</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>5900</v>
-      </c>
-      <c r="J33" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1710,14 +1510,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1749,14 +1543,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1788,14 +1576,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1827,14 +1609,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1866,14 +1642,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1905,14 +1675,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1944,14 +1708,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1983,14 +1741,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2022,14 +1774,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2061,14 +1807,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2100,14 +1840,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2139,14 +1873,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2178,14 +1906,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2217,14 +1939,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2256,14 +1972,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2295,14 +2005,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2334,14 +2038,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2378,11 +2076,7 @@
       <c r="J51" t="n">
         <v>5890</v>
       </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2421,7 +2115,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L52" t="n">
@@ -2739,11 +2433,9 @@
         <v>-1505.920798682758</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>5895</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
         <v>5890</v>
       </c>
@@ -2780,11 +2472,9 @@
         <v>-2000.747598682759</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>5905</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
         <v>5890</v>
       </c>
@@ -2821,11 +2511,9 @@
         <v>-1933.052798682759</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>5885</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
         <v>5890</v>
       </c>
@@ -2862,11 +2550,9 @@
         <v>-2006.031598682759</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>5890</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
         <v>5890</v>
       </c>
@@ -2903,11 +2589,9 @@
         <v>-1992.004798682759</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>5880</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
         <v>5890</v>
       </c>
@@ -2985,11 +2669,9 @@
         <v>-1992.004798682759</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>5890</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
         <v>5890</v>
       </c>
@@ -3108,11 +2790,9 @@
         <v>-1605.328198682759</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>5925</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
         <v>5890</v>
       </c>
@@ -3149,11 +2829,9 @@
         <v>-1598.728198682759</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>5895</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
         <v>5890</v>
       </c>
@@ -3190,11 +2868,9 @@
         <v>-1598.728198682759</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>5915</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
         <v>5890</v>
       </c>
@@ -3231,11 +2907,9 @@
         <v>-1619.020198682759</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>5915</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
         <v>5890</v>
       </c>
@@ -3272,11 +2946,9 @@
         <v>-1658.629898682759</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>5900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
         <v>5890</v>
       </c>
@@ -3432,9 +3104,11 @@
         <v>-496.4326679200467</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>5860</v>
+      </c>
       <c r="J77" t="n">
         <v>5890</v>
       </c>
@@ -3471,9 +3145,11 @@
         <v>-287.3326679200467</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>5870</v>
+      </c>
       <c r="J78" t="n">
         <v>5890</v>
       </c>
@@ -3551,11 +3227,9 @@
         <v>-528.2504679200466</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>5875</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
         <v>5890</v>
       </c>
@@ -3633,11 +3307,9 @@
         <v>-371.1883679200466</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>5885</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
         <v>5890</v>
       </c>
@@ -3674,11 +3346,9 @@
         <v>-438.3172679200466</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>5910</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
         <v>5890</v>
       </c>
@@ -3754,11 +3424,9 @@
         <v>-464.4421679200466</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>5920</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
         <v>5890</v>
       </c>
@@ -3873,11 +3541,9 @@
         <v>-462.6024679200466</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>5895</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
         <v>5890</v>
       </c>
@@ -3914,11 +3580,9 @@
         <v>-164.1664679200466</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>5920</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
         <v>5890</v>
       </c>
@@ -4774,11 +4438,9 @@
         <v>108.4974320799532</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>5890</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
         <v>5890</v>
       </c>
@@ -4815,11 +4477,9 @@
         <v>153.5309320799532</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>5895</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
         <v>5890</v>
       </c>
@@ -5324,9 +4984,11 @@
         <v>-243.3411679200468</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>5865</v>
+      </c>
       <c r="J125" t="n">
         <v>5890</v>
       </c>
@@ -6142,11 +5804,9 @@
         <v>-439.1821607528115</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>5895</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
         <v>5890</v>
       </c>
@@ -6183,11 +5843,9 @@
         <v>-439.1821607528115</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>5905</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
         <v>5890</v>
       </c>
@@ -6265,11 +5923,9 @@
         <v>-322.6421607528115</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>5915</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
         <v>5890</v>
       </c>
@@ -6306,11 +5962,9 @@
         <v>-3.242160752811515</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>5935</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
         <v>5890</v>
       </c>
@@ -6347,11 +6001,9 @@
         <v>16.75783924718849</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>5945</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
         <v>5890</v>
       </c>
@@ -6388,11 +6040,9 @@
         <v>79.46343924718849</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>5950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
         <v>5890</v>
       </c>
@@ -8457,7 +8107,7 @@
         <v>12026.57103924719</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
@@ -8465,13 +8115,15 @@
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+        <v>1.051027164685908</v>
+      </c>
+      <c r="M204" t="n">
+        <v>1.010247651579846</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8496,17 +8148,11 @@
         <v>12943.89643924719</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8535,17 +8181,11 @@
         <v>13654.63673924719</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8574,17 +8214,11 @@
         <v>12990.14983924719</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8613,17 +8247,11 @@
         <v>12588.70983924719</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8652,17 +8280,11 @@
         <v>12151.70983924719</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8691,17 +8313,11 @@
         <v>13219.96233924719</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8730,17 +8346,11 @@
         <v>12231.45043924719</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8769,17 +8379,11 @@
         <v>12129.05043924719</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8808,17 +8412,11 @@
         <v>12106.62913924719</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8850,14 +8448,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8889,14 +8481,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8928,14 +8514,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8967,14 +8547,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -9006,14 +8580,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -9045,14 +8613,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -9084,14 +8646,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -9123,14 +8679,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9162,14 +8712,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9201,14 +8745,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9240,14 +8778,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9279,14 +8811,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9315,17 +8841,11 @@
         <v>13468.90915395542</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9354,17 +8874,11 @@
         <v>13468.90915395542</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9393,17 +8907,11 @@
         <v>13743.12915395542</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9432,17 +8940,11 @@
         <v>14069.01265395542</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9471,17 +8973,11 @@
         <v>15420.31405395542</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9513,14 +9009,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9549,17 +9039,11 @@
         <v>14381.94915395542</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9588,17 +9072,11 @@
         <v>14505.84915395542</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9630,14 +9108,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9666,17 +9138,11 @@
         <v>13851.67845395542</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9705,17 +9171,11 @@
         <v>13980.87845395542</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9747,14 +9207,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9786,14 +9240,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9825,14 +9273,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9864,14 +9306,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9903,14 +9339,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9942,14 +9372,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9981,14 +9405,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -10020,14 +9438,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -10059,14 +9471,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -10098,14 +9504,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -10137,14 +9537,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -10176,14 +9570,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -10215,14 +9603,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -10254,14 +9636,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10293,14 +9669,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10332,14 +9702,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10371,14 +9735,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10410,14 +9768,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10449,14 +9801,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10488,14 +9834,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10527,14 +9867,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10566,14 +9900,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10605,14 +9933,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10644,14 +9966,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10683,14 +9999,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10722,14 +10032,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10761,14 +10065,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10800,14 +10098,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10839,14 +10131,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10878,14 +10164,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10917,14 +10197,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10956,14 +10230,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10995,14 +10263,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -11034,14 +10296,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -11073,14 +10329,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -11112,14 +10362,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -11151,14 +10395,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -11190,14 +10428,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -11229,14 +10461,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -11268,14 +10494,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -11307,14 +10527,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -11346,14 +10560,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -11385,14 +10593,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -11424,14 +10626,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11463,14 +10659,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11502,14 +10692,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11541,14 +10725,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11580,14 +10758,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11619,14 +10791,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11658,14 +10824,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11697,14 +10857,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11736,14 +10890,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11775,14 +10923,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11814,14 +10956,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11853,14 +10989,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11892,14 +11022,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11931,14 +11055,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11970,14 +11088,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -12009,14 +11121,8 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -12048,14 +11154,8 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -12087,14 +11187,8 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -12126,14 +11220,8 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -12165,14 +11253,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -12204,14 +11286,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -12243,14 +11319,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -12282,14 +11352,8 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -12321,14 +11385,8 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -12360,14 +11418,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -12399,14 +11451,8 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -12438,14 +11484,8 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -12477,14 +11517,8 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -12516,14 +11550,8 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -12555,14 +11583,8 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -12594,14 +11616,8 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12633,14 +11649,8 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12672,14 +11682,8 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12711,14 +11715,8 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12750,14 +11748,8 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12789,14 +11781,8 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12828,14 +11814,8 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12867,14 +11847,8 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12906,14 +11880,8 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12945,14 +11913,8 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12984,14 +11946,8 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -13023,14 +11979,8 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -13062,14 +12012,8 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -13101,14 +12045,8 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -13140,14 +12078,8 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -13179,14 +12111,8 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -13218,14 +12144,8 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -13257,14 +12177,8 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -13296,14 +12210,8 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -13335,14 +12243,8 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -13374,14 +12276,8 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -13413,14 +12309,8 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -13452,14 +12342,8 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -13491,14 +12375,8 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -13530,14 +12408,8 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -13569,14 +12441,8 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -13608,14 +12474,8 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -13647,14 +12507,8 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13686,14 +12540,8 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13725,14 +12573,8 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13764,14 +12606,8 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13803,14 +12639,8 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13842,14 +12672,8 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13881,14 +12705,8 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13920,14 +12738,8 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13959,14 +12771,8 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13998,14 +12804,8 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -14037,14 +12837,8 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -14076,14 +12870,8 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -14115,14 +12903,8 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -14154,14 +12936,8 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -14193,14 +12969,8 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -14232,14 +13002,8 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -14271,14 +13035,8 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -14310,14 +13068,8 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -14349,14 +13101,8 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -14388,14 +13134,8 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -14427,14 +13167,8 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -14466,14 +13200,8 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -14505,14 +13233,8 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -14544,14 +13266,8 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -14583,14 +13299,8 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -14622,14 +13332,8 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -14661,14 +13365,8 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -14700,14 +13398,8 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -14739,14 +13431,8 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -14778,14 +13464,8 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14817,14 +13497,8 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14856,14 +13530,8 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14895,14 +13563,8 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14934,14 +13596,8 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14973,14 +13629,8 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -15012,14 +13662,8 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -15051,14 +13695,8 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -15090,14 +13728,8 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -15129,14 +13761,8 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -15168,14 +13794,8 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -15207,14 +13827,8 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -15246,14 +13860,8 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -15285,14 +13893,8 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -15324,14 +13926,8 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -15363,14 +13959,8 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -15402,14 +13992,8 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -15441,14 +14025,8 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -15480,14 +14058,8 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -15519,14 +14091,8 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -15558,14 +14124,8 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -15597,14 +14157,8 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -15633,23 +14187,15 @@
         <v>19042.74743743861</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
-        <v>1.078191850594228</v>
-      </c>
-      <c r="M388" t="n">
-        <v>1.002548853016143</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M388" t="inlineStr"/>
     </row>
     <row r="389">
       <c r="A389" s="1" t="n">
@@ -15674,7 +14220,7 @@
         <v>19042.74743743861</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -15707,7 +14253,7 @@
         <v>19037.46413743861</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -15740,7 +14286,7 @@
         <v>18867.23737129688</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -15773,7 +14319,7 @@
         <v>18929.66637129688</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -15806,7 +14352,7 @@
         <v>18807.44547129688</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -15839,7 +14385,7 @@
         <v>19114.15667129688</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -15872,7 +14418,7 @@
         <v>19073.57267129688</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -15938,7 +14484,7 @@
         <v>19094.28897129688</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -16004,7 +14550,7 @@
         <v>19106.68897129688</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -16070,7 +14616,7 @@
         <v>17533.31777129689</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -16103,7 +14649,7 @@
         <v>17841.82977129689</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -16136,7 +14682,7 @@
         <v>17546.63567129688</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -16169,7 +14715,7 @@
         <v>17665.03567129689</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -16202,7 +14748,7 @@
         <v>17836.00247129688</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -16301,7 +14847,7 @@
         <v>18074.53867129689</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -16334,7 +14880,7 @@
         <v>17693.23457129689</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -16367,7 +14913,7 @@
         <v>17729.31297129688</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -16400,7 +14946,7 @@
         <v>17674.28937129688</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -16433,7 +14979,7 @@
         <v>17681.48937129688</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -16466,7 +15012,7 @@
         <v>17681.48937129688</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -16499,7 +15045,7 @@
         <v>17871.04627129688</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -16532,7 +15078,7 @@
         <v>17875.07787129688</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -16565,7 +15111,7 @@
         <v>17976.47787129688</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -16598,7 +15144,7 @@
         <v>18000.11367129688</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -16796,7 +15342,7 @@
         <v>17717.86757129689</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -16829,7 +15375,7 @@
         <v>17717.86757129689</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -16895,7 +15441,7 @@
         <v>18209.06197129689</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -16928,7 +15474,7 @@
         <v>18407.76197129689</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -16961,7 +15507,7 @@
         <v>18658.85547129689</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -16994,7 +15540,7 @@
         <v>18648.95707129689</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -17027,7 +15573,7 @@
         <v>18726.14807129689</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -17060,7 +15606,7 @@
         <v>18726.14807129689</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -17093,7 +15639,7 @@
         <v>18718.82377129689</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -17126,7 +15672,7 @@
         <v>18718.82377129689</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -17159,7 +15705,7 @@
         <v>18714.43257129689</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -17192,7 +15738,7 @@
         <v>18502.25037129689</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -17225,7 +15771,7 @@
         <v>18966.54417129689</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -17258,7 +15804,7 @@
         <v>19017.94417129689</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -17291,7 +15837,7 @@
         <v>18872.65217129689</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -17324,7 +15870,7 @@
         <v>18779.32437129689</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -17357,7 +15903,7 @@
         <v>18779.32437129689</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -17390,7 +15936,7 @@
         <v>18779.24437129689</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -17423,7 +15969,7 @@
         <v>18779.24437129689</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -17456,7 +16002,7 @@
         <v>18130.68487129689</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -17489,7 +16035,7 @@
         <v>18745.90087129689</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -17522,7 +16068,7 @@
         <v>18939.95967129689</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -17555,7 +16101,7 @@
         <v>19376.31287129689</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -17588,7 +16134,7 @@
         <v>19225.23257129689</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -17621,7 +16167,7 @@
         <v>19351.78467129689</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -17654,7 +16200,7 @@
         <v>18747.14077129689</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -17687,7 +16233,7 @@
         <v>18855.14987129689</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -17720,7 +16266,7 @@
         <v>18826.94347129689</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -17753,7 +16299,7 @@
         <v>18707.03377129689</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -17786,7 +16332,7 @@
         <v>18603.73377129689</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -17819,7 +16365,7 @@
         <v>18603.73377129689</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -17852,7 +16398,7 @@
         <v>18707.13377129689</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -17885,7 +16431,7 @@
         <v>18558.40457129689</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -17918,7 +16464,7 @@
         <v>18398.27037129689</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -17951,7 +16497,7 @@
         <v>18453.86697129689</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -17984,7 +16530,7 @@
         <v>18466.19157129689</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -18017,7 +16563,7 @@
         <v>18420.60757129689</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -18050,7 +16596,7 @@
         <v>18534.93587129689</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -18083,7 +16629,7 @@
         <v>18414.47227129689</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -18116,7 +16662,7 @@
         <v>18414.47227129689</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -18149,7 +16695,7 @@
         <v>18304.47227129689</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -18182,7 +16728,7 @@
         <v>18749.75257129689</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -18215,7 +16761,7 @@
         <v>18400.37837129689</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -18248,7 +16794,7 @@
         <v>18855.33737129689</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -18281,7 +16827,7 @@
         <v>19086.75437129689</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -18314,7 +16860,7 @@
         <v>19086.14507129689</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -18347,7 +16893,7 @@
         <v>19175.41917129689</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -18380,7 +16926,7 @@
         <v>19175.41917129689</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -18413,7 +16959,7 @@
         <v>19214.13479004689</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -18446,7 +16992,7 @@
         <v>18713.68479004689</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -18479,7 +17025,7 @@
         <v>18717.46359004689</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -18512,7 +17058,7 @@
         <v>18717.46359004689</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -18545,7 +17091,7 @@
         <v>18717.36359004689</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -18578,7 +17124,7 @@
         <v>19601.0383900469</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -18611,7 +17157,7 @@
         <v>19065.97679004689</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -18644,7 +17190,7 @@
         <v>19066.1267900469</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -18677,7 +17223,7 @@
         <v>18942.78533871669</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -18710,7 +17256,7 @@
         <v>18943.4824367559</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -18743,7 +17289,7 @@
         <v>18943.4824367559</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -18776,7 +17322,7 @@
         <v>18943.4824367559</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -18809,7 +17355,7 @@
         <v>18912.9107367559</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -18842,7 +17388,7 @@
         <v>19143.6828367559</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -18875,7 +17421,7 @@
         <v>19143.6828367559</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -18908,7 +17454,7 @@
         <v>18832.6546367559</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -18941,7 +17487,7 @@
         <v>18832.6546367559</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -18974,7 +17520,7 @@
         <v>18832.6546367559</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -19007,7 +17553,7 @@
         <v>18838.3546367559</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -19040,7 +17586,7 @@
         <v>18838.3546367559</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -19073,7 +17619,7 @@
         <v>18803.0396367559</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -19106,7 +17652,7 @@
         <v>18803.0396367559</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -19139,7 +17685,7 @@
         <v>18156.4318367559</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -19172,7 +17718,7 @@
         <v>18347.1700367559</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -19205,7 +17751,7 @@
         <v>18347.1700367559</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -19238,7 +17784,7 @@
         <v>18330.3693367559</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -19271,7 +17817,7 @@
         <v>18400.3693367559</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -19304,7 +17850,7 @@
         <v>18400.3693367559</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -19337,7 +17883,7 @@
         <v>18498.0086367559</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -19370,7 +17916,7 @@
         <v>18498.0086367559</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -19403,7 +17949,7 @@
         <v>18554.1105367559</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -19436,7 +17982,7 @@
         <v>18579.1544367559</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -19469,7 +18015,7 @@
         <v>18524.8004367559</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -19502,7 +18048,7 @@
         <v>18038.11073675591</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -19535,7 +18081,7 @@
         <v>18453.20153675591</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -19568,7 +18114,7 @@
         <v>18407.36313675591</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -19601,7 +18147,7 @@
         <v>18378.38153675591</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -19667,7 +18213,7 @@
         <v>18378.38153675591</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -19700,7 +18246,7 @@
         <v>18378.38153675591</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -19733,7 +18279,7 @@
         <v>18351.04413675591</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -19799,7 +18345,7 @@
         <v>18357.47893675591</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -19832,7 +18378,7 @@
         <v>18427.72363675591</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -19865,7 +18411,7 @@
         <v>18427.72363675591</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -19898,7 +18444,7 @@
         <v>18448.01563675591</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -19931,7 +18477,7 @@
         <v>18454.00163675591</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -19964,7 +18510,7 @@
         <v>18453.90143675591</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -19997,7 +18543,7 @@
         <v>18453.90143675591</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -20030,7 +18576,7 @@
         <v>18453.90143675591</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -20063,7 +18609,7 @@
         <v>18453.90143675591</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -20096,7 +18642,7 @@
         <v>18453.90143675591</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -20129,7 +18675,7 @@
         <v>18453.90143675591</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -20162,7 +18708,7 @@
         <v>18678.3966422895</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -20195,7 +18741,7 @@
         <v>18678.3966422895</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -20228,7 +18774,7 @@
         <v>18678.3966422895</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -20261,7 +18807,7 @@
         <v>19030.2769367559</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -20294,7 +18840,7 @@
         <v>19030.2769367559</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -20327,7 +18873,7 @@
         <v>19030.2769367559</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -20360,7 +18906,7 @@
         <v>19028.2769367559</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -20393,7 +18939,7 @@
         <v>19028.2769367559</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -20426,7 +18972,7 @@
         <v>18604.0579367559</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -20459,7 +19005,7 @@
         <v>18604.0579367559</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -20492,7 +19038,7 @@
         <v>18722.9491367559</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -20525,7 +19071,7 @@
         <v>18717.3402367559</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -20558,7 +19104,7 @@
         <v>18717.3402367559</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -20591,7 +19137,7 @@
         <v>18576.7531367559</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -20624,7 +19170,7 @@
         <v>18593.4014367559</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -20657,7 +19203,7 @@
         <v>18593.4014367559</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -20690,7 +19236,7 @@
         <v>18573.9896367559</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -20723,7 +19269,7 @@
         <v>18599.5525367559</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -20756,7 +19302,7 @@
         <v>18611.5525367559</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -20789,7 +19335,7 @@
         <v>18611.5525367559</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -20822,7 +19368,7 @@
         <v>18695.1042367559</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -20855,7 +19401,7 @@
         <v>18664.0070367559</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -20888,7 +19434,7 @@
         <v>18664.0070367559</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -20921,7 +19467,7 @@
         <v>19379.7522367559</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -20954,7 +19500,7 @@
         <v>19495.1360367559</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -20987,7 +19533,7 @@
         <v>19395.4598367559</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -21020,7 +19566,7 @@
         <v>19222.2554367559</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -21053,7 +19599,7 @@
         <v>19336.0414367559</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -21086,7 +19632,7 @@
         <v>19362.9183367559</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -21119,7 +19665,7 @@
         <v>19002.3909367559</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -21152,7 +19698,7 @@
         <v>19104.2768367559</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -21185,7 +19731,7 @@
         <v>19104.2768367559</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -21218,7 +19764,7 @@
         <v>19104.2768367559</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -21251,7 +19797,7 @@
         <v>19104.2768367559</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -21284,7 +19830,7 @@
         <v>19104.71283675591</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -21317,7 +19863,7 @@
         <v>19104.71283675591</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -21350,7 +19896,7 @@
         <v>19158.1070367559</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -21383,7 +19929,7 @@
         <v>18983.31233675591</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -21416,7 +19962,7 @@
         <v>18983.31233675591</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -21449,7 +19995,7 @@
         <v>18993.31233675591</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -21482,7 +20028,7 @@
         <v>18993.31233675591</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -21515,7 +20061,7 @@
         <v>18993.1545367559</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -21548,7 +20094,7 @@
         <v>18856.0534367559</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -21581,7 +20127,7 @@
         <v>18856.0534367559</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -21614,7 +20160,7 @@
         <v>18756.0534367559</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -21647,7 +20193,7 @@
         <v>18722.0660367559</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -21680,7 +20226,7 @@
         <v>18722.0660367559</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -21713,7 +20259,7 @@
         <v>18722.0660367559</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -21746,7 +20292,7 @@
         <v>18722.0660367559</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -21779,7 +20325,7 @@
         <v>18716.3698367559</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -21812,7 +20358,7 @@
         <v>18654.7454367559</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -21845,7 +20391,7 @@
         <v>18375.0385367559</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -21878,7 +20424,7 @@
         <v>18351.0707367559</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -21911,7 +20457,7 @@
         <v>18492.0189367559</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -21944,7 +20490,7 @@
         <v>18492.0189367559</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -21977,7 +20523,7 @@
         <v>17435.4864367559</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -22010,7 +20556,7 @@
         <v>17307.7528367559</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -22043,7 +20589,7 @@
         <v>17307.7528367559</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -22076,7 +20622,7 @@
         <v>17584.4997367559</v>
       </c>
       <c r="H583" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -22109,7 +20655,7 @@
         <v>18566.2212367559</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -22142,7 +20688,7 @@
         <v>18367.3212367559</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -22175,7 +20721,7 @@
         <v>18245.9309367559</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -22208,7 +20754,7 @@
         <v>18381.1698367559</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -22241,7 +20787,7 @@
         <v>18372.0936367559</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -22274,7 +20820,7 @@
         <v>18350.9114367559</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -22307,7 +20853,7 @@
         <v>18343.8262367559</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -22340,7 +20886,7 @@
         <v>18343.8262367559</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -22373,7 +20919,7 @@
         <v>18531.7399367559</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -22406,7 +20952,7 @@
         <v>18531.7399367559</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -22439,7 +20985,7 @@
         <v>18114.1272367559</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -22472,7 +21018,7 @@
         <v>18114.1272367559</v>
       </c>
       <c r="H595" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -22538,7 +21084,7 @@
         <v>18712.7097367559</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -24683,7 +23229,7 @@
         <v>20553.70823881875</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -24716,7 +23262,7 @@
         <v>20762.37493881875</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -24749,7 +23295,7 @@
         <v>19935.75173881876</v>
       </c>
       <c r="H664" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -24782,7 +23328,7 @@
         <v>19935.75173881876</v>
       </c>
       <c r="H665" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -24815,7 +23361,7 @@
         <v>19898.51743881876</v>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -24848,7 +23394,7 @@
         <v>19898.51743881876</v>
       </c>
       <c r="H667" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -24980,7 +23526,7 @@
         <v>22378.15043881875</v>
       </c>
       <c r="H671" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -25046,7 +23592,7 @@
         <v>22644.60093881875</v>
       </c>
       <c r="H673" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -25145,7 +23691,7 @@
         <v>24330.37603881875</v>
       </c>
       <c r="H676" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -25178,7 +23724,7 @@
         <v>24252.37603881875</v>
       </c>
       <c r="H677" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -25211,7 +23757,7 @@
         <v>23746.77123881875</v>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -25244,7 +23790,7 @@
         <v>23746.77123881875</v>
       </c>
       <c r="H679" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -25277,7 +23823,7 @@
         <v>23252.83833881875</v>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -25310,7 +23856,7 @@
         <v>23202.47463881875</v>
       </c>
       <c r="H681" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -25343,7 +23889,7 @@
         <v>23212.90543881875</v>
       </c>
       <c r="H682" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -25376,7 +23922,7 @@
         <v>23212.90543881875</v>
       </c>
       <c r="H683" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -25409,7 +23955,7 @@
         <v>23212.90543881875</v>
       </c>
       <c r="H684" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -25442,7 +23988,7 @@
         <v>23361.90543881875</v>
       </c>
       <c r="H685" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -25475,7 +24021,7 @@
         <v>23654.06273881875</v>
       </c>
       <c r="H686" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -25508,7 +24054,7 @@
         <v>23700.62773881874</v>
       </c>
       <c r="H687" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -25519,6 +24065,6 @@
       <c r="M687" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest ETC.xlsx
+++ b/BackTest/2020-01-12 BackTest ETC.xlsx
@@ -2105,11 +2105,9 @@
         <v>-1426.150598682758</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>5890</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
         <v>5890</v>
       </c>
@@ -2472,9 +2470,11 @@
         <v>-2000.747598682759</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>5905</v>
+      </c>
       <c r="J61" t="n">
         <v>5890</v>
       </c>
@@ -2628,11 +2628,9 @@
         <v>-1992.004798682759</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>5890</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
         <v>5890</v>
       </c>
@@ -2708,11 +2706,9 @@
         <v>-1711.628698682759</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>5890</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
         <v>5890</v>
       </c>
@@ -2749,11 +2745,9 @@
         <v>-1506.986198682759</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>5900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
         <v>5890</v>
       </c>
@@ -2985,11 +2979,9 @@
         <v>-434.7588679200467</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>5875</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
         <v>5890</v>
       </c>
@@ -3104,11 +3096,9 @@
         <v>-496.4326679200467</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>5860</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
         <v>5890</v>
       </c>
@@ -3145,11 +3135,9 @@
         <v>-287.3326679200467</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>5870</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
         <v>5890</v>
       </c>
@@ -3186,11 +3174,9 @@
         <v>-542.4043679200466</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>5885</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
         <v>5890</v>
       </c>
@@ -3266,11 +3252,9 @@
         <v>-515.1232679200466</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>5880</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
         <v>5890</v>
       </c>
@@ -4984,11 +4968,9 @@
         <v>-243.3411679200468</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>5865</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
         <v>5890</v>
       </c>
@@ -5025,11 +5007,9 @@
         <v>-251.6247679200468</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>5870</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
         <v>5890</v>
       </c>
@@ -5107,11 +5087,9 @@
         <v>-936.8246679200469</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>5850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
         <v>5890</v>
       </c>
@@ -5882,11 +5860,9 @@
         <v>-322.7821607528115</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>5905</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
         <v>5890</v>
       </c>
@@ -8107,7 +8083,7 @@
         <v>12026.57103924719</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
@@ -8115,15 +8091,13 @@
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L204" t="n">
-        <v>1.051027164685908</v>
-      </c>
-      <c r="M204" t="n">
-        <v>1.010247651579846</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8148,11 +8122,17 @@
         <v>12943.89643924719</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>5890</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8181,11 +8161,17 @@
         <v>13654.63673924719</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>5890</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8214,11 +8200,17 @@
         <v>12990.14983924719</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>5890</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8247,11 +8239,17 @@
         <v>12588.70983924719</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>5890</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8280,11 +8278,17 @@
         <v>12151.70983924719</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>5890</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8313,11 +8317,17 @@
         <v>13219.96233924719</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>5890</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8346,11 +8356,17 @@
         <v>12231.45043924719</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>5890</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8379,11 +8395,17 @@
         <v>12129.05043924719</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>5890</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8412,11 +8434,17 @@
         <v>12106.62913924719</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>5890</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8448,8 +8476,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>5890</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8481,8 +8515,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>5890</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8514,8 +8554,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>5890</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8547,8 +8593,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>5890</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8580,8 +8632,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>5890</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8613,8 +8671,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>5890</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8646,8 +8710,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>5890</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8679,8 +8749,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>5890</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8712,8 +8788,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>5890</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8745,8 +8827,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>5890</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8778,8 +8866,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>5890</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8811,8 +8905,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>5890</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8841,11 +8941,17 @@
         <v>13468.90915395542</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>5890</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8874,11 +8980,17 @@
         <v>13468.90915395542</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>5890</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8907,11 +9019,17 @@
         <v>13743.12915395542</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>5890</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8940,11 +9058,17 @@
         <v>14069.01265395542</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>5890</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8973,11 +9097,17 @@
         <v>15420.31405395542</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>5890</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9009,8 +9139,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>5890</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9042,12 +9178,20 @@
         <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>5890</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+        <v>1.062062818336163</v>
+      </c>
+      <c r="M232" t="n">
+        <v>1.010247651579846</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9072,7 +9216,7 @@
         <v>14505.84915395542</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -9105,7 +9249,7 @@
         <v>14096.85855395542</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -9138,7 +9282,7 @@
         <v>13851.67845395542</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -9171,7 +9315,7 @@
         <v>13980.87845395542</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -9765,7 +9909,7 @@
         <v>13135.79752278968</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9798,7 +9942,7 @@
         <v>13135.79752278968</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -13824,7 +13968,7 @@
         <v>13389.12108984208</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -14022,7 +14166,7 @@
         <v>17995.36153743861</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -14055,7 +14199,7 @@
         <v>17023.10733743861</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -14088,7 +14232,7 @@
         <v>18323.21913743861</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -14154,7 +14298,7 @@
         <v>19065.33203743861</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -14187,7 +14331,7 @@
         <v>19042.74743743861</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -14220,7 +14364,7 @@
         <v>19042.74743743861</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -14253,7 +14397,7 @@
         <v>19037.46413743861</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -14286,7 +14430,7 @@
         <v>18867.23737129688</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -14319,7 +14463,7 @@
         <v>18929.66637129688</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -14352,7 +14496,7 @@
         <v>18807.44547129688</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -14385,7 +14529,7 @@
         <v>19114.15667129688</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -14418,7 +14562,7 @@
         <v>19073.57267129688</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14451,7 +14595,7 @@
         <v>18863.07387129688</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -14484,7 +14628,7 @@
         <v>19094.28897129688</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -15837,7 +15981,7 @@
         <v>18872.65217129689</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -16134,7 +16278,7 @@
         <v>19225.23257129689</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -16167,7 +16311,7 @@
         <v>19351.78467129689</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -16200,7 +16344,7 @@
         <v>18747.14077129689</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -16233,7 +16377,7 @@
         <v>18855.14987129689</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16266,7 +16410,7 @@
         <v>18826.94347129689</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -16299,7 +16443,7 @@
         <v>18707.03377129689</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -16332,7 +16476,7 @@
         <v>18603.73377129689</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -16365,7 +16509,7 @@
         <v>18603.73377129689</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -16398,7 +16542,7 @@
         <v>18707.13377129689</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -16431,7 +16575,7 @@
         <v>18558.40457129689</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -16464,7 +16608,7 @@
         <v>18398.27037129689</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -16497,7 +16641,7 @@
         <v>18453.86697129689</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -16530,7 +16674,7 @@
         <v>18466.19157129689</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -16563,7 +16707,7 @@
         <v>18420.60757129689</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -16596,7 +16740,7 @@
         <v>18534.93587129689</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -16629,7 +16773,7 @@
         <v>18414.47227129689</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -16662,7 +16806,7 @@
         <v>18414.47227129689</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -16695,7 +16839,7 @@
         <v>18304.47227129689</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -16728,7 +16872,7 @@
         <v>18749.75257129689</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -16761,7 +16905,7 @@
         <v>18400.37837129689</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -16794,7 +16938,7 @@
         <v>18855.33737129689</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -16827,7 +16971,7 @@
         <v>19086.75437129689</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -16860,7 +17004,7 @@
         <v>19086.14507129689</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -16893,7 +17037,7 @@
         <v>19175.41917129689</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -16926,7 +17070,7 @@
         <v>19175.41917129689</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -16959,7 +17103,7 @@
         <v>19214.13479004689</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -16992,7 +17136,7 @@
         <v>18713.68479004689</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -17025,7 +17169,7 @@
         <v>18717.46359004689</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -17058,7 +17202,7 @@
         <v>18717.46359004689</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -17091,7 +17235,7 @@
         <v>18717.36359004689</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -17124,7 +17268,7 @@
         <v>19601.0383900469</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -17157,7 +17301,7 @@
         <v>19065.97679004689</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -17190,7 +17334,7 @@
         <v>19066.1267900469</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -17223,7 +17367,7 @@
         <v>18942.78533871669</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -17256,7 +17400,7 @@
         <v>18943.4824367559</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -17289,7 +17433,7 @@
         <v>18943.4824367559</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -17322,7 +17466,7 @@
         <v>18943.4824367559</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -17355,7 +17499,7 @@
         <v>18912.9107367559</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -17388,7 +17532,7 @@
         <v>19143.6828367559</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -17421,7 +17565,7 @@
         <v>19143.6828367559</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -17454,7 +17598,7 @@
         <v>18832.6546367559</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -17487,7 +17631,7 @@
         <v>18832.6546367559</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -17520,7 +17664,7 @@
         <v>18832.6546367559</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -17553,7 +17697,7 @@
         <v>18838.3546367559</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -17586,7 +17730,7 @@
         <v>18838.3546367559</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -17619,7 +17763,7 @@
         <v>18803.0396367559</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -17652,7 +17796,7 @@
         <v>18803.0396367559</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -17685,7 +17829,7 @@
         <v>18156.4318367559</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -17718,7 +17862,7 @@
         <v>18347.1700367559</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -17751,7 +17895,7 @@
         <v>18347.1700367559</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -17784,7 +17928,7 @@
         <v>18330.3693367559</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -17916,7 +18060,7 @@
         <v>18498.0086367559</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -19533,7 +19677,7 @@
         <v>19395.4598367559</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -19566,7 +19710,7 @@
         <v>19222.2554367559</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -19665,7 +19809,7 @@
         <v>19002.3909367559</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -19698,7 +19842,7 @@
         <v>19104.2768367559</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -19764,7 +19908,7 @@
         <v>19104.2768367559</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -19797,7 +19941,7 @@
         <v>19104.2768367559</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -19830,7 +19974,7 @@
         <v>19104.71283675591</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -19863,7 +20007,7 @@
         <v>19104.71283675591</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -19896,7 +20040,7 @@
         <v>19158.1070367559</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -19929,7 +20073,7 @@
         <v>18983.31233675591</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -19962,7 +20106,7 @@
         <v>18983.31233675591</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -20028,7 +20172,7 @@
         <v>18993.31233675591</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -20061,7 +20205,7 @@
         <v>18993.1545367559</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -20094,7 +20238,7 @@
         <v>18856.0534367559</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -23229,7 +23373,7 @@
         <v>20553.70823881875</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -23262,7 +23406,7 @@
         <v>20762.37493881875</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -23295,7 +23439,7 @@
         <v>19935.75173881876</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -23328,7 +23472,7 @@
         <v>19935.75173881876</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -23361,7 +23505,7 @@
         <v>19898.51743881876</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -23394,7 +23538,7 @@
         <v>19898.51743881876</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -23493,7 +23637,7 @@
         <v>22660.33043881875</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -23526,7 +23670,7 @@
         <v>22378.15043881875</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -23559,7 +23703,7 @@
         <v>22276.10093881875</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -23592,7 +23736,7 @@
         <v>22644.60093881875</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -23625,7 +23769,7 @@
         <v>24330.37603881875</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -23658,7 +23802,7 @@
         <v>24330.37603881875</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -23691,7 +23835,7 @@
         <v>24330.37603881875</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -23724,7 +23868,7 @@
         <v>24252.37603881875</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -23757,7 +23901,7 @@
         <v>23746.77123881875</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -23790,7 +23934,7 @@
         <v>23746.77123881875</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -23823,7 +23967,7 @@
         <v>23252.83833881875</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -23856,7 +24000,7 @@
         <v>23202.47463881875</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -23889,7 +24033,7 @@
         <v>23212.90543881875</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -23922,7 +24066,7 @@
         <v>23212.90543881875</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -23955,7 +24099,7 @@
         <v>23212.90543881875</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -23988,7 +24132,7 @@
         <v>23361.90543881875</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -24021,7 +24165,7 @@
         <v>23654.06273881875</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -24054,7 +24198,7 @@
         <v>23700.62773881874</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
